--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E19CE94-56A3-4773-9EE9-03A44794FA1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4EDD8-4BC2-4E4F-B1AF-2D017EA4C3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,6 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Two sum</t>
   </si>
@@ -182,10 +181,19 @@
     <t>Letter Combinations of a Phone Number</t>
   </si>
   <si>
-    <t>3.1o</t>
-  </si>
-  <si>
     <t>N-Queens</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Paths II    </t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Triangle</t>
   </si>
 </sst>
 </file>
@@ -228,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +245,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,14 +573,14 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.2200000000000002</v>
+      <c r="C2" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43883</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -579,14 +590,14 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.2200000000000002</v>
+      <c r="C3" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43883</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -596,14 +607,14 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.2200000000000002</v>
+      <c r="C4" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43883</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -613,14 +624,14 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.2200000000000002</v>
+      <c r="C5" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43883</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,14 +641,14 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.2200000000000002</v>
+      <c r="C6" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43883</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,14 +658,14 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.2200000000000002</v>
+      <c r="C7" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43883</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,14 +675,14 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.2200000000000002</v>
+      <c r="C8" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43883</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,11 +692,11 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.1800000000000002</v>
+      <c r="C9" s="4">
+        <v>43878</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43879</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -695,8 +706,8 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>2.1800000000000002</v>
+      <c r="C10" s="4">
+        <v>43879</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,8 +717,8 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>2.1800000000000002</v>
+      <c r="C11" s="4">
+        <v>43879</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,11 +728,11 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.2599999999999998</v>
+      <c r="C12" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43887</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,14 +742,14 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.5</v>
+      <c r="C13" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43887</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43895</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,11 +759,11 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.2599999999999998</v>
+      <c r="C14" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43887</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,11 +773,11 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.2599999999999998</v>
+      <c r="C15" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43887</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,14 +787,14 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.8</v>
+      <c r="C16" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43889</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43898</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,14 +804,14 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3.6</v>
+      <c r="C17" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43889</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43898</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,11 +821,11 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.2799999999999998</v>
+      <c r="C18" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43889</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,11 +835,11 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.2799999999999998</v>
+      <c r="C19" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43889</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,14 +849,14 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3.3</v>
+      <c r="C20" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,14 +866,14 @@
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.3</v>
+      <c r="C21" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,14 +883,14 @@
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3.3</v>
+      <c r="C22" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -889,14 +900,14 @@
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3.3</v>
+      <c r="C23" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,14 +917,14 @@
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3.3</v>
+      <c r="C24" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -923,14 +934,14 @@
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3.3</v>
+      <c r="C25" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,14 +951,14 @@
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3.3</v>
+      <c r="C26" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,14 +968,14 @@
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3.8</v>
+      <c r="C27" s="4">
+        <v>43893</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43895</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43898</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,8 +985,8 @@
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
-        <v>3.3</v>
+      <c r="C28" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,8 +996,8 @@
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
-        <v>3.3</v>
+      <c r="C29" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,8 +1007,8 @@
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
-        <v>3.3</v>
+      <c r="C30" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,8 +1018,8 @@
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
-        <v>3.3</v>
+      <c r="C31" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,8 +1029,8 @@
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
-        <v>3.3</v>
+      <c r="C32" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,8 +1040,8 @@
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
-        <v>3.3</v>
+      <c r="C33" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,8 +1051,8 @@
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
-        <v>3.3</v>
+      <c r="C34" s="4">
+        <v>43893</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,8 +1062,8 @@
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
-        <v>3.4</v>
+      <c r="C35" s="4">
+        <v>43894</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1062,11 +1073,11 @@
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="D36">
-        <v>3.8</v>
+      <c r="C36" s="4">
+        <v>43894</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43898</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,11 +1087,11 @@
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="D37">
-        <v>3.5</v>
+      <c r="C37" s="4">
+        <v>43894</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43895</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,11 +1101,11 @@
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="D38">
-        <v>3.5</v>
+      <c r="C38" s="4">
+        <v>43894</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43895</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,11 +1115,11 @@
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="D39">
-        <v>3.8</v>
+      <c r="C39" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43898</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,8 +1129,11 @@
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="1">
-        <v>3.8</v>
+      <c r="C40" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43905</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,8 +1143,11 @@
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="1">
-        <v>3.8</v>
+      <c r="C41" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43905</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,8 +1157,11 @@
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="1">
-        <v>3.8</v>
+      <c r="C42" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43905</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1151,8 +1171,11 @@
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="1">
-        <v>3.8</v>
+      <c r="C43" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43905</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1162,8 +1185,11 @@
       <c r="B44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
+      <c r="C44" s="4">
+        <v>43900</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43905</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,31 +1197,76 @@
         <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43900</v>
+      </c>
+      <c r="D45" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C46" s="4">
+        <v>43905</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43905</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4EDD8-4BC2-4E4F-B1AF-2D017EA4C3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C86E1FF-2E3E-4D69-A0F1-0E61521F30A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="problem 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="problem" sheetId="4" r:id="rId1"/>
+    <sheet name="plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>Two sum</t>
   </si>
@@ -157,9 +158,6 @@
     <t>4th</t>
   </si>
   <si>
-    <t>1th,2th</t>
-  </si>
-  <si>
     <t>5th</t>
   </si>
   <si>
@@ -194,6 +192,54 @@
   </si>
   <si>
     <t>Triangle</t>
+  </si>
+  <si>
+    <t>1th</t>
+  </si>
+  <si>
+    <t>2th</t>
+  </si>
+  <si>
+    <t>Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Find Largest Value in Each Tree Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word Ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word Ladder II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Islands    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minesweeper   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Game  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Game II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt(x)   </t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Perfect Square    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in Rotated Sorted Array   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a 2D Matrix    </t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix  II</t>
   </si>
 </sst>
 </file>
@@ -529,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
-  <dimension ref="A1:F110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,9 +590,10 @@
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -554,19 +601,22 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -583,7 +633,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -600,7 +650,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26</v>
       </c>
@@ -617,7 +667,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>66</v>
       </c>
@@ -634,7 +684,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>88</v>
       </c>
@@ -651,7 +701,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>189</v>
       </c>
@@ -668,7 +718,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>283</v>
       </c>
@@ -685,7 +735,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>155</v>
       </c>
@@ -699,7 +749,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>641</v>
       </c>
@@ -710,7 +760,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>622</v>
       </c>
@@ -721,7 +771,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>239</v>
       </c>
@@ -735,7 +785,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -752,7 +802,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>206</v>
       </c>
@@ -766,7 +816,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -780,7 +830,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>76</v>
       </c>
@@ -988,6 +1038,9 @@
       <c r="C28" s="4">
         <v>43893</v>
       </c>
+      <c r="D28" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -999,6 +1052,9 @@
       <c r="C29" s="4">
         <v>43893</v>
       </c>
+      <c r="D29" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1010,6 +1066,9 @@
       <c r="C30" s="4">
         <v>43893</v>
       </c>
+      <c r="D30" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1021,6 +1080,9 @@
       <c r="C31" s="4">
         <v>43893</v>
       </c>
+      <c r="D31" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1032,6 +1094,9 @@
       <c r="C32" s="4">
         <v>43893</v>
       </c>
+      <c r="D32" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1043,6 +1108,9 @@
       <c r="C33" s="4">
         <v>43893</v>
       </c>
+      <c r="D33" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1054,6 +1122,9 @@
       <c r="C34" s="4">
         <v>43893</v>
       </c>
+      <c r="D34" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1065,6 +1136,9 @@
       <c r="C35" s="4">
         <v>43894</v>
       </c>
+      <c r="D35" s="4">
+        <v>43908</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1113,7 +1187,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="4">
         <v>43898</v>
@@ -1124,10 +1198,10 @@
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <v>43898</v>
@@ -1141,7 +1215,7 @@
         <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
         <v>43898</v>
@@ -1155,7 +1229,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
         <v>43898</v>
@@ -1169,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <v>43898</v>
@@ -1183,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4">
         <v>43900</v>
@@ -1197,7 +1271,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="4">
         <v>43900</v>
@@ -1211,7 +1285,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="4">
         <v>43905</v>
@@ -1223,7 +1297,7 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="4">
         <v>43905</v>
@@ -1235,7 +1309,7 @@
         <v>1143</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="4">
         <v>43905</v>
@@ -1246,14 +1320,34 @@
         <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4">
         <v>43905</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>433</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>515</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43908</v>
+      </c>
+    </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1320,6 +1414,899 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
+  <dimension ref="A1:G110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>189</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>283</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43878</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>155</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43878</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>641</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>622</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>239</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43887</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>206</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43889</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>438</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43889</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>242</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>209</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>589</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>144</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>590</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>145</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>429</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>102</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43889</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43893</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43895</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>226</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>111</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>297</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>236</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43894</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43894</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43894</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>90</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43898</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43900</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43900</v>
+      </c>
+      <c r="D45" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43905</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43905</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>433</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>515</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>127</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>200</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>529</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>50</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>367</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>33</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>240</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E066FCA-69E9-4B52-92D4-A21C62259647}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C86E1FF-2E3E-4D69-A0F1-0E61521F30A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675FE3B8-47DE-476E-9743-AA26746B5ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>Two sum</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Search a 2D Matrix  II</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -1072,24 +1075,24 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4">
-        <v>43893</v>
+        <v>43908</v>
       </c>
       <c r="D31" s="4">
         <v>43908</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4">
         <v>43893</v>
@@ -1100,10 +1103,10 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
         <v>43893</v>
@@ -1114,10 +1117,10 @@
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4">
         <v>43893</v>
@@ -1128,13 +1131,13 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="D35" s="4">
         <v>43908</v>
@@ -1142,38 +1145,38 @@
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4">
         <v>43894</v>
       </c>
       <c r="D36" s="4">
-        <v>43898</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4">
         <v>43894</v>
       </c>
       <c r="D37" s="4">
-        <v>43895</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4">
         <v>43894</v>
@@ -1184,38 +1187,38 @@
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4">
-        <v>43898</v>
+        <v>43894</v>
       </c>
       <c r="D39" s="4">
-        <v>43898</v>
+        <v>43895</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4">
         <v>43898</v>
       </c>
       <c r="D40" s="4">
-        <v>43905</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4">
         <v>43898</v>
@@ -1226,10 +1229,10 @@
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4">
         <v>43898</v>
@@ -1240,10 +1243,10 @@
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4">
         <v>43898</v>
@@ -1254,13 +1257,13 @@
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="4">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="D44" s="4">
         <v>43905</v>
@@ -1268,10 +1271,10 @@
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="4">
         <v>43900</v>
@@ -1282,22 +1285,24 @@
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="4">
+        <v>43900</v>
+      </c>
+      <c r="D46" s="4">
         <v>43905</v>
       </c>
-      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="4">
         <v>43905</v>
@@ -1306,21 +1311,22 @@
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1143</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="4">
         <v>43905</v>
       </c>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>120</v>
+        <v>1143</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="4">
         <v>43905</v>
@@ -1328,27 +1334,37 @@
     </row>
     <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>433</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C50" s="4">
-        <v>43908</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4">
         <v>43908</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>515</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43908</v>
+      </c>
+    </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1407,6 +1423,7 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675FE3B8-47DE-476E-9743-AA26746B5ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1DE910-57BC-43AA-AC92-6F0143972ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>Two sum</t>
   </si>
@@ -243,6 +243,35 @@
   </si>
   <si>
     <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Time to Buy and Sell Stock II  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Time to Buy and Sell Stock III  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Time to Buy and Sell Stock IV    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Time to Buy and Sell Stock with Cooldown    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Best Time to Buy and Sell Stock with Transaction Fee </t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -581,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,14 +1394,94 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>647</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>121</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>122</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>123</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>188</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>309</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>714</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43912</v>
+      </c>
+    </row>
     <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1432,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,133 +2269,198 @@
     </row>
     <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>433</v>
+        <v>647</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>515</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>529</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45</v>
+        <v>714</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>69</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>50</v>
+        <v>515</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
+        <v>529</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>55</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>69</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>50</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>367</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>33</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>74</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>240</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2317,6 +2491,8 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1DE910-57BC-43AA-AC92-6F0143972ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53261030-5C54-4127-B7FA-F021C33B1B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,6 +13,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>Two sum</t>
   </si>
@@ -272,6 +273,60 @@
   </si>
   <si>
     <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>House Robber  II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Add Two Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance </t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
   </si>
 </sst>
 </file>
@@ -608,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1185,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1144,7 +1199,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>111</v>
       </c>
@@ -1158,7 +1213,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>297</v>
       </c>
@@ -1172,7 +1227,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>236</v>
       </c>
@@ -1186,7 +1241,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>77</v>
       </c>
@@ -1200,7 +1255,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46</v>
       </c>
@@ -1214,7 +1269,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47</v>
       </c>
@@ -1228,7 +1283,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>50</v>
       </c>
@@ -1242,7 +1297,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -1256,7 +1311,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>90</v>
       </c>
@@ -1270,7 +1325,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1284,7 +1339,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1298,7 +1353,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>17</v>
       </c>
@@ -1312,7 +1367,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>51</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>62</v>
       </c>
@@ -1336,9 +1391,14 @@
       <c r="C47" s="4">
         <v>43905</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="4">
+        <v>43913</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>63</v>
       </c>
@@ -1348,9 +1408,14 @@
       <c r="C48" s="4">
         <v>43905</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="4">
+        <v>43913</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1143</v>
       </c>
@@ -1360,8 +1425,11 @@
       <c r="C49" s="4">
         <v>43905</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>120</v>
       </c>
@@ -1372,7 +1440,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>433</v>
       </c>
@@ -1383,7 +1451,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>515</v>
       </c>
@@ -1394,7 +1462,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>647</v>
       </c>
@@ -1405,7 +1473,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>64</v>
       </c>
@@ -1415,8 +1483,14 @@
       <c r="C54" s="4">
         <v>43911</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="4">
+        <v>43913</v>
+      </c>
+      <c r="E54" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>121</v>
       </c>
@@ -1426,8 +1500,11 @@
       <c r="C55" s="4">
         <v>43912</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="4">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>122</v>
       </c>
@@ -1437,8 +1514,11 @@
       <c r="C56" s="4">
         <v>43912</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="4">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>123</v>
       </c>
@@ -1448,8 +1528,9 @@
       <c r="C57" s="4">
         <v>43912</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>188</v>
       </c>
@@ -1460,7 +1541,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>309</v>
       </c>
@@ -1471,7 +1552,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>714</v>
       </c>
@@ -1482,10 +1563,40 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>322</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>55</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1530,9 +1641,6 @@
     <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1543,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,30 +2561,137 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>206</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>23</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>237</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>138</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>141</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>24</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>234</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>328</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>143</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>19</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>203</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>213</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>72</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53261030-5C54-4127-B7FA-F021C33B1B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E779840-EF34-467B-B0A2-FD3A1538DA6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,6 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -665,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +933,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>438</v>
       </c>
@@ -951,7 +950,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>242</v>
       </c>
@@ -965,7 +964,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>209</v>
       </c>
@@ -979,7 +978,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>589</v>
       </c>
@@ -995,8 +994,11 @@
       <c r="E20" s="4">
         <v>43893</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>144</v>
       </c>
@@ -1012,8 +1014,11 @@
       <c r="E21" s="4">
         <v>43893</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>94</v>
       </c>
@@ -1029,8 +1034,11 @@
       <c r="E22" s="4">
         <v>43893</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>590</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>145</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>429</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>102</v>
       </c>
@@ -1097,8 +1105,11 @@
       <c r="E26" s="4">
         <v>43893</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>70</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>105</v>
       </c>
@@ -1128,8 +1139,11 @@
       <c r="D28" s="4">
         <v>43908</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1143,7 +1157,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>226</v>
       </c>
@@ -1157,7 +1171,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>230</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>98</v>
       </c>
@@ -1428,6 +1442,9 @@
       <c r="D49" s="4">
         <v>43914</v>
       </c>
+      <c r="E49" s="4">
+        <v>43916</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -1573,6 +1590,9 @@
       <c r="C61" s="4">
         <v>43914</v>
       </c>
+      <c r="D61" s="4">
+        <v>43916</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -1584,6 +1604,9 @@
       <c r="C62" s="4">
         <v>43914</v>
       </c>
+      <c r="D62" s="4">
+        <v>43916</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -1594,6 +1617,9 @@
       </c>
       <c r="C63" s="4">
         <v>43914</v>
+      </c>
+      <c r="D63" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E779840-EF34-467B-B0A2-FD3A1538DA6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F85AD5-BBAF-4425-AB80-1360E278BC9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>Two sum</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Paint House</t>
   </si>
 </sst>
 </file>
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1173,9 @@
       <c r="D30" s="4">
         <v>43908</v>
       </c>
+      <c r="E30" s="4">
+        <v>43916</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1199,7 +1205,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1212,8 +1218,11 @@
       <c r="D33" s="4">
         <v>43908</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>111</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>297</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>236</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>77</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>50</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>90</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>17</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>51</v>
       </c>
@@ -1395,7 +1404,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>62</v>
       </c>
@@ -1411,8 +1420,11 @@
       <c r="E47" s="4">
         <v>43914</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="4">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>63</v>
       </c>
@@ -1427,6 +1439,9 @@
       </c>
       <c r="E48" s="4">
         <v>43914</v>
+      </c>
+      <c r="F48" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,7 +1637,17 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>256</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="4">
+        <v>43916</v>
+      </c>
+    </row>
     <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F85AD5-BBAF-4425-AB80-1360E278BC9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8230DE4-8CC4-4ACA-817F-96409769D347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
   <si>
     <t>Two sum</t>
   </si>
@@ -329,13 +329,38 @@
   </si>
   <si>
     <t>Paint House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Paint House II    </t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +371,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +414,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,10 +808,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>88</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
@@ -1474,60 +1508,69 @@
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="4">
         <v>43908</v>
       </c>
+      <c r="D51" s="4">
+        <v>43916</v>
+      </c>
+      <c r="E51" s="4">
+        <v>43919</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>515</v>
+        <v>647</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C52" s="4">
-        <v>43908</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>647</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="4">
         <v>43911</v>
       </c>
+      <c r="D53" s="4">
+        <v>43913</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43914</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C54" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D54" s="4">
         <v>43913</v>
       </c>
-      <c r="E54" s="4">
-        <v>43914</v>
-      </c>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4">
         <v>43912</v>
@@ -1538,36 +1581,33 @@
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4">
         <v>43912</v>
       </c>
-      <c r="D56" s="4">
-        <v>43913</v>
-      </c>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4">
         <v>43912</v>
       </c>
-      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="4">
         <v>43912</v>
@@ -1575,10 +1615,10 @@
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>309</v>
+        <v>714</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4">
         <v>43912</v>
@@ -1586,21 +1626,24 @@
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>714</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C60" s="4">
-        <v>43912</v>
+        <v>43914</v>
+      </c>
+      <c r="D60" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C61" s="4">
         <v>43914</v>
@@ -1611,10 +1654,10 @@
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>322</v>
+        <v>55</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="4">
         <v>43914</v>
@@ -1625,45 +1668,124 @@
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="4">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="D63" s="4">
-        <v>43916</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C64" s="4">
-        <v>43916</v>
-      </c>
-    </row>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>43918</v>
+      </c>
+      <c r="D64" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>198</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="4">
+        <v>43918</v>
+      </c>
+      <c r="D65" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>198</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="4">
+        <v>43918</v>
+      </c>
+      <c r="D66" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>279</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>131</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>132</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>494</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>416</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="4">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8230DE4-8CC4-4ACA-817F-96409769D347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA5D085-0AE5-4B9D-BEFB-1B96C5776C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
   <si>
     <t>Two sum</t>
   </si>
@@ -354,6 +354,27 @@
   </si>
   <si>
     <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum path sum</t>
+  </si>
+  <si>
+    <t>Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -701,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,6 +1214,9 @@
       <c r="D29" s="4">
         <v>43908</v>
       </c>
+      <c r="E29" s="4">
+        <v>43921</v>
+      </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1311,6 +1335,9 @@
       <c r="D37" s="4">
         <v>43898</v>
       </c>
+      <c r="E37" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1325,6 +1352,9 @@
       <c r="D38" s="4">
         <v>43895</v>
       </c>
+      <c r="E38" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1339,6 +1369,9 @@
       <c r="D39" s="4">
         <v>43895</v>
       </c>
+      <c r="E39" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1367,6 +1400,9 @@
       <c r="D41" s="4">
         <v>43905</v>
       </c>
+      <c r="E41" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1381,6 +1417,9 @@
       <c r="D42" s="4">
         <v>43905</v>
       </c>
+      <c r="E42" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1395,6 +1434,9 @@
       <c r="D43" s="4">
         <v>43905</v>
       </c>
+      <c r="E43" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1409,6 +1451,9 @@
       <c r="D44" s="4">
         <v>43905</v>
       </c>
+      <c r="E44" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1423,6 +1468,9 @@
       <c r="D45" s="4">
         <v>43905</v>
       </c>
+      <c r="E45" s="4">
+        <v>43921</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1777,13 +1825,83 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>617</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="4">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>173</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="4">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>108</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="4">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="4">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>124</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>654</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>110</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43921</v>
+      </c>
+    </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA5D085-0AE5-4B9D-BEFB-1B96C5776C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB43E2-D399-40EC-81E2-89C5929584E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
   <si>
     <t>Two sum</t>
   </si>
@@ -368,13 +368,7 @@
     <t>Same Tree</t>
   </si>
   <si>
-    <t>Binary Tree Maximum path sum</t>
-  </si>
-  <si>
     <t>Maximum Binary Tree</t>
-  </si>
-  <si>
-    <t>Balanced Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -720,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,6 +1228,9 @@
       <c r="E30" s="4">
         <v>43916</v>
       </c>
+      <c r="F30" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1279,6 +1276,9 @@
       <c r="E33" s="4">
         <v>43916</v>
       </c>
+      <c r="F33" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1293,6 +1293,9 @@
       <c r="D34" s="4">
         <v>43908</v>
       </c>
+      <c r="E34" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1835,6 +1838,9 @@
       <c r="C72" s="4">
         <v>43921</v>
       </c>
+      <c r="D72" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -1846,6 +1852,9 @@
       <c r="C73" s="4">
         <v>43921</v>
       </c>
+      <c r="D73" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -1857,6 +1866,9 @@
       <c r="C74" s="4">
         <v>43921</v>
       </c>
+      <c r="D74" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -1868,10 +1880,13 @@
       <c r="C75" s="4">
         <v>43921</v>
       </c>
+      <c r="D75" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>124</v>
+        <v>654</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>109</v>
@@ -1879,29 +1894,12 @@
       <c r="C76" s="4">
         <v>43921</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>654</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="4">
-        <v>43921</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>110</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="4">
-        <v>43921</v>
-      </c>
-    </row>
+      <c r="D76" s="4">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1930,8 +1928,6 @@
     <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB43E2-D399-40EC-81E2-89C5929584E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D2EEE-F674-4133-8CC0-38AC33A6994D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
   <si>
     <t>Two sum</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
   </si>
 </sst>
 </file>
@@ -716,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,8 +1904,28 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>49</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43926</v>
+      </c>
+    </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D2EEE-F674-4133-8CC0-38AC33A6994D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209B47D-B2A2-41C6-A921-1CDEC5ADFE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>Two sum</t>
   </si>
@@ -375,6 +375,42 @@
   </si>
   <si>
     <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>To Lower Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Length of Last Word</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reverse String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reverse String II</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>Reverse Only Letters</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
   </si>
 </sst>
 </file>
@@ -720,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,6 +1950,9 @@
       <c r="C77" s="4">
         <v>43925</v>
       </c>
+      <c r="D77" s="4">
+        <v>43926</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -1926,24 +1965,144 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>709</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="4">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>58</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="4">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>771</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="4">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>387</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="4">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>14</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="4">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>344</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="4">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>541</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="4">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>151</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>917</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>557</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>125</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>680</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1954,6 +2113,360 @@
     <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209B47D-B2A2-41C6-A921-1CDEC5ADFE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA50F8-41DE-4270-A7CF-5615DC47B16C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
   <si>
     <t>Two sum</t>
   </si>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,28 +2097,148 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>237</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>148</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>138</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>141</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>24</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>234</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>328</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>143</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>19</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>203</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2477,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA50F8-41DE-4270-A7CF-5615DC47B16C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC709FE5-F4EA-4821-BC3E-2A74560D259B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +812,9 @@
       <c r="E2" s="4">
         <v>43883</v>
       </c>
+      <c r="F2" s="4">
+        <v>43933</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1987,7 +1990,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>771</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>387</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>14</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>344</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>541</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>151</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>917</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>557</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>125</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>680</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2107,8 +2110,11 @@
       <c r="C91" s="4">
         <v>43931</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="4">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>23</v>
       </c>
@@ -2118,8 +2124,11 @@
       <c r="C92" s="4">
         <v>43931</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="4">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>237</v>
       </c>
@@ -2129,8 +2138,11 @@
       <c r="C93" s="4">
         <v>43931</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="4">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>148</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>138</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>141</v>
       </c>
@@ -2162,8 +2174,11 @@
       <c r="C96" s="4">
         <v>43932</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="4">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -2174,7 +2189,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>234</v>
       </c>
@@ -2185,7 +2200,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>328</v>
       </c>
@@ -2196,7 +2211,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>143</v>
       </c>
@@ -2207,7 +2222,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>19</v>
       </c>
@@ -2217,8 +2232,11 @@
       <c r="C101" s="4">
         <v>43932</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="4">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>203</v>
       </c>
@@ -2228,17 +2246,20 @@
       <c r="C102" s="4">
         <v>43932</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D102" s="4">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC709FE5-F4EA-4821-BC3E-2A74560D259B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD41085-4952-44EA-AF36-8F606FC053C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>Two sum</t>
   </si>
@@ -411,6 +411,13 @@
   </si>
   <si>
     <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from sorted list</t>
   </si>
 </sst>
 </file>
@@ -758,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,7 +1997,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>771</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>387</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>14</v>
       </c>
@@ -2023,7 +2030,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>344</v>
       </c>
@@ -2034,7 +2041,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>541</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>151</v>
       </c>
@@ -2056,7 +2063,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>917</v>
       </c>
@@ -2067,7 +2074,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>557</v>
       </c>
@@ -2078,7 +2085,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>125</v>
       </c>
@@ -2089,7 +2096,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>680</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2114,7 +2121,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>23</v>
       </c>
@@ -2128,7 +2135,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>237</v>
       </c>
@@ -2141,8 +2148,11 @@
       <c r="D93" s="4">
         <v>43933</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="4">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>148</v>
       </c>
@@ -2152,8 +2162,11 @@
       <c r="C94" s="4">
         <v>43931</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="4">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>138</v>
       </c>
@@ -2163,8 +2176,11 @@
       <c r="C95" s="4">
         <v>43931</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="4">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>141</v>
       </c>
@@ -2188,6 +2204,9 @@
       <c r="C97" s="4">
         <v>43932</v>
       </c>
+      <c r="D97" s="4">
+        <v>43935</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -2250,8 +2269,28 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>445</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="4">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>83</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="4">
+        <v>43936</v>
+      </c>
+    </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD41085-4952-44EA-AF36-8F606FC053C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88850565-97B8-4B08-9234-570A5888630E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
     <t>Two sum</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>Remove Duplicates from sorted list</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
   </si>
 </sst>
 </file>
@@ -765,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,8 +2297,28 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>212</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="4">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>208</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="4">
+        <v>43937</v>
+      </c>
+    </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88850565-97B8-4B08-9234-570A5888630E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A90B01-EF71-4181-973F-E67BBDB5AD66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
   <si>
     <t>Two sum</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
   </si>
 </sst>
 </file>
@@ -771,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,24 +1538,30 @@
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="4">
-        <v>43900</v>
+        <v>43905</v>
       </c>
       <c r="D46" s="4">
-        <v>43905</v>
+        <v>43913</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43914</v>
+      </c>
+      <c r="F46" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="4">
         <v>43905</v>
@@ -1569,103 +1578,97 @@
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>63</v>
+        <v>1143</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="4">
         <v>43905</v>
       </c>
       <c r="D48" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="E48" s="4">
-        <v>43914</v>
-      </c>
-      <c r="F48" s="4">
         <v>43916</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1143</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4">
         <v>43905</v>
       </c>
-      <c r="D49" s="4">
-        <v>43914</v>
-      </c>
-      <c r="E49" s="4">
-        <v>43916</v>
-      </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4">
-        <v>43905</v>
+        <v>43908</v>
+      </c>
+      <c r="D50" s="4">
+        <v>43916</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43919</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>515</v>
+        <v>647</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C51" s="4">
-        <v>43908</v>
-      </c>
-      <c r="D51" s="4">
-        <v>43916</v>
-      </c>
-      <c r="E51" s="4">
-        <v>43919</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>647</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="4">
         <v>43911</v>
       </c>
+      <c r="D52" s="4">
+        <v>43913</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43914</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D53" s="4">
         <v>43913</v>
       </c>
-      <c r="E53" s="4">
-        <v>43914</v>
-      </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4">
         <v>43912</v>
@@ -1676,36 +1679,33 @@
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4">
         <v>43912</v>
       </c>
-      <c r="D55" s="4">
-        <v>43913</v>
-      </c>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4">
         <v>43912</v>
       </c>
-      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4">
         <v>43912</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>309</v>
+        <v>714</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="4">
         <v>43912</v>
@@ -1724,21 +1724,24 @@
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>714</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C59" s="4">
-        <v>43912</v>
+        <v>43914</v>
+      </c>
+      <c r="D59" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C60" s="4">
         <v>43914</v>
@@ -1749,10 +1752,10 @@
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>322</v>
+        <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C61" s="4">
         <v>43914</v>
@@ -1763,38 +1766,38 @@
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C62" s="4">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="D62" s="4">
-        <v>43916</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C63" s="4">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="D63" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64" s="4">
         <v>43918</v>
@@ -1808,7 +1811,7 @@
         <v>198</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C65" s="4">
         <v>43918</v>
@@ -1819,24 +1822,21 @@
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C66" s="4">
-        <v>43918</v>
-      </c>
-      <c r="D66" s="4">
         <v>43919</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="4">
         <v>43919</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C68" s="4">
         <v>43919</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>132</v>
+        <v>494</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C69" s="4">
         <v>43919</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>494</v>
+        <v>416</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="4">
         <v>43919</v>
@@ -1877,21 +1877,24 @@
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>416</v>
+        <v>617</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C71" s="4">
-        <v>43919</v>
+        <v>43921</v>
+      </c>
+      <c r="D71" s="4">
+        <v>43923</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>617</v>
+        <v>173</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C72" s="4">
         <v>43921</v>
@@ -1902,10 +1905,10 @@
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73" s="4">
         <v>43921</v>
@@ -1916,10 +1919,10 @@
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
+        <v>100</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C74" s="4">
         <v>43921</v>
@@ -1930,10 +1933,10 @@
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>100</v>
+        <v>654</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C75" s="4">
         <v>43921</v>
@@ -1944,38 +1947,35 @@
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>654</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C76" s="4">
-        <v>43921</v>
+        <v>43925</v>
       </c>
       <c r="D76" s="4">
-        <v>43923</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C77" s="4">
-        <v>43925</v>
-      </c>
-      <c r="D77" s="4">
         <v>43926</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>49</v>
+        <v>709</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C78" s="4">
         <v>43926</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>709</v>
+        <v>58</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C79" s="4">
         <v>43926</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>58</v>
+        <v>771</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" s="4">
         <v>43926</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>771</v>
+        <v>387</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4">
         <v>43926</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>387</v>
+        <v>14</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="4">
         <v>43926</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4">
         <v>43926</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>344</v>
+        <v>541</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C84" s="4">
         <v>43926</v>
@@ -2049,21 +2049,21 @@
     </row>
     <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>541</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>151</v>
+        <v>917</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" s="4">
         <v>43927</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>917</v>
+        <v>557</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" s="4">
         <v>43927</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>557</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="4">
         <v>43927</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>125</v>
+        <v>680</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="4">
         <v>43927</v>
@@ -2104,21 +2104,24 @@
     </row>
     <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>680</v>
+        <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C90" s="4">
-        <v>43927</v>
+        <v>43931</v>
+      </c>
+      <c r="D90" s="4">
+        <v>43933</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C91" s="4">
         <v>43931</v>
@@ -2129,10 +2132,10 @@
     </row>
     <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C92" s="4">
         <v>43931</v>
@@ -2140,30 +2143,30 @@
       <c r="D92" s="4">
         <v>43933</v>
       </c>
+      <c r="E92" s="4">
+        <v>43935</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C93" s="4">
         <v>43931</v>
       </c>
       <c r="D93" s="4">
-        <v>43933</v>
-      </c>
-      <c r="E93" s="4">
         <v>43935</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94" s="4">
         <v>43931</v>
@@ -2174,52 +2177,49 @@
     </row>
     <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C95" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D95" s="4">
-        <v>43935</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C96" s="4">
         <v>43932</v>
       </c>
       <c r="D96" s="4">
-        <v>43933</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C97" s="4">
         <v>43932</v>
       </c>
-      <c r="D97" s="4">
-        <v>43935</v>
-      </c>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C98" s="4">
         <v>43932</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C99" s="4">
         <v>43932</v>
@@ -2238,21 +2238,22 @@
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C100" s="4">
         <v>43932</v>
       </c>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C101" s="4">
         <v>43932</v>
@@ -2263,46 +2264,43 @@
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>203</v>
+        <v>445</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C102" s="4">
-        <v>43932</v>
-      </c>
-      <c r="D102" s="4">
-        <v>43933</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C103" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C104" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C105" s="4">
         <v>43937</v>
@@ -2310,16 +2308,27 @@
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="C106" s="4">
-        <v>43937</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>43938</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>37</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="4">
+        <v>43938</v>
+      </c>
+    </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A90B01-EF71-4181-973F-E67BBDB5AD66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B78F6-DEA1-40A8-BE97-1C48B79C72B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="134">
   <si>
     <t>Two sum</t>
   </si>
@@ -427,6 +427,21 @@
   </si>
   <si>
     <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Search </t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Sudoku  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minesweeper  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the Lock    </t>
   </si>
 </sst>
 </file>
@@ -772,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G460"/>
+  <dimension ref="A1:G459"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,6 +2309,7 @@
       <c r="C104" s="4">
         <v>43937</v>
       </c>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2305,6 +2321,7 @@
       <c r="C105" s="4">
         <v>43937</v>
       </c>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -2328,28 +2345,83 @@
       <c r="C107" s="4">
         <v>43938</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>433</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>79</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>752</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>127</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>36</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>529</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2753,6 @@
     <row r="457" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="458" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="459" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B78F6-DEA1-40A8-BE97-1C48B79C72B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745AC39-9977-4513-9404-EC172E2A87CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>Two sum</t>
   </si>
@@ -435,13 +435,22 @@
     <t>Word Ladder</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid Sudoku  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minesweeper  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Open the Lock    </t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Shortest Path in Binary Matrix</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
   </si>
 </sst>
 </file>
@@ -787,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G459"/>
+  <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2383,7 @@
         <v>752</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C110" s="4">
         <v>43943</v>
@@ -2393,35 +2402,71 @@
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>36</v>
+        <v>785</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="C112" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>529</v>
+        <v>200</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>133</v>
+      </c>
+      <c r="C113" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>301</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>695</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2751,8 +2796,6 @@
     <row r="455" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="456" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="457" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745AC39-9977-4513-9404-EC172E2A87CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694ADA6D-2042-4952-83C8-18F4EEC2E5D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
   <si>
     <t>Two sum</t>
   </si>
@@ -451,6 +451,30 @@
   </si>
   <si>
     <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Binary Search Trees </t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Distribute Coins in Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -796,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,14 +2479,94 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1192</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>124</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>95</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>96</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>110</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>99</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>235</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>979</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" s="4">
+        <v>43947</v>
+      </c>
+    </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2899,6 @@
     <row r="454" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="455" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="456" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2806,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD85"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694ADA6D-2042-4952-83C8-18F4EEC2E5D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE23AEA-6EC0-4832-9146-9CB360F8488D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="150">
   <si>
     <t>Two sum</t>
   </si>
@@ -475,6 +475,21 @@
   </si>
   <si>
     <t>Distribute Coins in Binary Tree</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Minimum in Rotated Sorted Array </t>
   </si>
 </sst>
 </file>
@@ -822,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,26 +2582,86 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>173</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>69</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="4">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>367</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="4">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>33</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="4">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>74</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="4">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>153</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="4">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE23AEA-6EC0-4832-9146-9CB360F8488D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081C2CA-9B96-415B-A891-4FADB7804E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
   <si>
     <t>Two sum</t>
   </si>
@@ -490,6 +490,30 @@
   </si>
   <si>
     <t xml:space="preserve">Find Minimum in Rotated Sorted Array </t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamming Distance </t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
   </si>
 </sst>
 </file>
@@ -837,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,14 +2672,94 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>136</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>137</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>371</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>461</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>169</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>231</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>191</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>268</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="4">
+        <v>43953</v>
+      </c>
+    </row>
     <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081C2CA-9B96-415B-A891-4FADB7804E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B097E23-F09F-4AC5-AEED-B643FD3AA5F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
   <si>
     <t>Two sum</t>
   </si>
@@ -514,6 +514,29 @@
   </si>
   <si>
     <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Reverse Pairs</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Design HashMap</t>
   </si>
 </sst>
 </file>
@@ -859,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G456"/>
+  <dimension ref="A1:G448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,28 +2783,98 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>56</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>349</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>253</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>493</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>146</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>232</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C144" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>706</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C145" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3070,14 +3163,6 @@
     <row r="446" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="447" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="448" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B097E23-F09F-4AC5-AEED-B643FD3AA5F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B08AC-823D-4F2E-8C67-190C2B7FF4D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="254">
   <si>
     <t>Two sum</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Min stack</t>
   </si>
   <si>
-    <t xml:space="preserve">Design Circular Deque  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Circular Queue  </t>
-  </si>
-  <si>
     <t xml:space="preserve">	
 Sliding Window Maximum </t>
   </si>
@@ -191,9 +185,6 @@
     <t>Longest Common Subsequence</t>
   </si>
   <si>
-    <t>Triangle</t>
-  </si>
-  <si>
     <t>1th</t>
   </si>
   <si>
@@ -204,42 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Find Largest Value in Each Tree Row</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Word Ladder</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Word Ladder II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Islands    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minesweeper   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump Game  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump Game II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sqrt(x)   </t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid Perfect Square    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in Rotated Sorted Array   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a 2D Matrix    </t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix  II</t>
   </si>
   <si>
     <t>Kth Smallest Element in a BST</t>
@@ -271,12 +226,6 @@
     <t xml:space="preserve"> Minimum Path Sum</t>
   </si>
   <si>
-    <t>Find Minimum in Rotated Sorted Array</t>
-  </si>
-  <si>
-    <t>House Robber  II</t>
-  </si>
-  <si>
     <t xml:space="preserve">	
 Add Two Numbers</t>
   </si>
@@ -284,9 +233,6 @@
     <t xml:space="preserve">Edit Distance </t>
   </si>
   <si>
-    <t>Reverse Linked List</t>
-  </si>
-  <si>
     <t>Merge k Sorted Lists</t>
   </si>
   <si>
@@ -537,13 +483,334 @@
   </si>
   <si>
     <t>Design HashMap</t>
+  </si>
+  <si>
+    <t>1 Two Sum</t>
+  </si>
+  <si>
+    <t>53 Maximum Subarray</t>
+  </si>
+  <si>
+    <t>23 Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>322 Coin Change</t>
+  </si>
+  <si>
+    <t>79 Word Search</t>
+  </si>
+  <si>
+    <t>560 Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>31 Next Permutation</t>
+  </si>
+  <si>
+    <t>46 Permutations</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>91 Decode Ways</t>
+  </si>
+  <si>
+    <t>124 Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>986 Interval List Intersections</t>
+  </si>
+  <si>
+    <t>39 Combination Sum</t>
+  </si>
+  <si>
+    <t>236 Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>45 Jump Game II</t>
+  </si>
+  <si>
+    <t>212 Word Search II</t>
+  </si>
+  <si>
+    <t>341 Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>133 Clone Graph</t>
+  </si>
+  <si>
+    <t>695 Max Area of Island</t>
+  </si>
+  <si>
+    <t>426 Convert Binary Search Tree to Sorted Doubly Linked List</t>
+  </si>
+  <si>
+    <t>300 Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>50 Pow(x, n)</t>
+  </si>
+  <si>
+    <t>173 Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>210 Course Schedule II</t>
+  </si>
+  <si>
+    <t>199 Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>329 Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>128 Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>105 Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>277 Find the Celebrity</t>
+  </si>
+  <si>
+    <t>198 House Robber</t>
+  </si>
+  <si>
+    <t>211 Add and Search Word - Data structure design</t>
+  </si>
+  <si>
+    <t>545 Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>547 Friend Circles</t>
+  </si>
+  <si>
+    <t>150 Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>208 Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>84 Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>165 Compare Version Numbers</t>
+  </si>
+  <si>
+    <t>244 Shortest Word Distance II</t>
+  </si>
+  <si>
+    <t>36 Valid Sudoku</t>
+  </si>
+  <si>
+    <t>611 Valid Triangle Number</t>
+  </si>
+  <si>
+    <t>346 Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>366 Find Leaves of Binary Tree</t>
+  </si>
+  <si>
+    <t>339 Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>463 Island Perimeter</t>
+  </si>
+  <si>
+    <t>252 Meeting Rooms</t>
+  </si>
+  <si>
+    <t>104 Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>209 Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>240 Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>123 Best Time to Buy and Sell Stock III, damn hard for google</t>
+  </si>
+  <si>
+    <t>116 Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>114 Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>284 Peeking Iterator</t>
+  </si>
+  <si>
+    <t>142 Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>109 Convert Sorted List to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>110 Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>130 Surrounded Regions</t>
+  </si>
+  <si>
+    <t>285 Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>169 Majority Element</t>
+  </si>
+  <si>
+    <t>235 Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>704 Binary Search, template</t>
+  </si>
+  <si>
+    <t>450 Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>1008 Construct Binary Search Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>605 Can Place Flowers</t>
+  </si>
+  <si>
+    <t>223 Rectangle Area</t>
+  </si>
+  <si>
+    <t>100 Same Tree</t>
+  </si>
+  <si>
+    <t>303 Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>290 Word Pattern</t>
+  </si>
+  <si>
+    <t>654 Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>1026 Maximum Difference Between Node and Ancestor</t>
+  </si>
+  <si>
+    <t>305 Number of Islands II</t>
+  </si>
+  <si>
+    <t>2 Add Two Numbers, reverse linked list inplace</t>
+  </si>
+  <si>
+    <t>146 LRU Cache--    single linked list with timestamp. </t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring-     n2 extend way, no need manacher </t>
+  </si>
+  <si>
+    <t>4 Median of Two Sorted Arrays  --    hard level. </t>
+  </si>
+  <si>
+    <t>973 K Closest Points to Origin----    heap </t>
+  </si>
+  <si>
+    <t>200 Number of Islands---    dfs, bfs, unionfind array and node</t>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <t>42 Trapping Rain Water ---  single array, one way stack, 2 pointer. </t>
+  </si>
+  <si>
+    <t>3 Longest Substring Without Repeating Characters--- one 128 size array. incremental pointer. </t>
+  </si>
+  <si>
+    <t>56 Merge Intervals, 253 Meeting Rooms II --  topo sort, sweep line</t>
+  </si>
+  <si>
+    <t>301 Remove Invalid Parentheses--   dfs, not hard but complicated logic</t>
+  </si>
+  <si>
+    <t>33 Search in Rotated Sorted Array-- conditional binary search </t>
+  </si>
+  <si>
+    <t>297 Serialize and Deserialize Binary Tree--python iterator, save space</t>
+  </si>
+  <si>
+    <t>297 Serialize and Deserialize Binary Tree--- subtle way to use counter dict </t>
+  </si>
+  <si>
+    <t>138 Copy List with Random Pointer--   very good idea to copy linked list</t>
+  </si>
+  <si>
+    <t>49 Group Anagrams--  not much good way. could use prime number to multiply but only for small number </t>
+  </si>
+  <si>
+    <t>10 Regular Expression Matching-- hard</t>
+  </si>
+  <si>
+    <t>295 Find Median from Data Stream --   2 heap</t>
+  </si>
+  <si>
+    <t>215 Kth Largest Element in an Array--   quick select, very important</t>
+  </si>
+  <si>
+    <t>127 Word Ladder -- dfs, bfs, trie</t>
+  </si>
+  <si>
+    <t>139 Word Break --dfs with memorization </t>
+  </si>
+  <si>
+    <t>103 Binary Tree Zigzag Level Order Traversal --   simple bfs</t>
+  </si>
+  <si>
+    <t>98 Validate Binary Search Tree --  use None as min and max</t>
+  </si>
+  <si>
+    <t>642 Design Search Autocomplete System--     trie</t>
+  </si>
+  <si>
+    <t>85 Maximal Rectangle--     one way stack</t>
+  </si>
+  <si>
+    <t>283 Move Zeroes--  different ways, use less read or write</t>
+  </si>
+  <si>
+    <t>227 Basic Calculator II --     very subtle </t>
+  </si>
+  <si>
+    <t>239 Sliding Window Maximum--  ask many times, could be used for rate limiter </t>
+  </si>
+  <si>
+    <t>207 Course Schedule -- very important, topo sorting, graph,  with dependency will need 2 set for marking,    pending set, finish set. </t>
+  </si>
+  <si>
+    <t>34 Find First and Last Position of Element in Sorted Array --     very important, binary search template. </t>
+  </si>
+  <si>
+    <t>28 Implement strStr() --   kmp</t>
+  </si>
+  <si>
+    <t>230 Kth Smallest Element in a BST --    template!</t>
+  </si>
+  <si>
+    <t>272 Closest Binary Search Tree Value II --  template</t>
+  </si>
+  <si>
+    <t>407 Trapping Rain Water II --    heap</t>
+  </si>
+  <si>
+    <t>307 Range Sum Query - Mutable --  segment tree!</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>20 Valid Parentheses -     2 variable linear time. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +830,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,6 +874,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
-  <dimension ref="A1:G448"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,25 +1177,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -941,6 +1217,9 @@
       <c r="F2" s="4">
         <v>43933</v>
       </c>
+      <c r="G2" s="4">
+        <v>43958</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -958,6 +1237,9 @@
       <c r="E3" s="4">
         <v>43883</v>
       </c>
+      <c r="F3" s="4">
+        <v>43958</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -975,6 +1257,9 @@
       <c r="E4" s="4">
         <v>43883</v>
       </c>
+      <c r="F4" s="4">
+        <v>43958</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -992,6 +1277,9 @@
       <c r="E5" s="4">
         <v>43883</v>
       </c>
+      <c r="F5" s="4">
+        <v>43958</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1009,6 +1297,9 @@
       <c r="E6" s="4">
         <v>43883</v>
       </c>
+      <c r="F6" s="4">
+        <v>43958</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1026,6 +1317,9 @@
       <c r="E7" s="4">
         <v>43883</v>
       </c>
+      <c r="F7" s="4">
+        <v>43958</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1060,31 +1354,40 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>641</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>43879</v>
+        <v>43886</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43887</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>622</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>43879</v>
+        <v>43886</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43887</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43895</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>239</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4">
@@ -1096,10 +1399,10 @@
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4">
         <v>43886</v>
@@ -1107,41 +1410,44 @@
       <c r="D13" s="4">
         <v>43887</v>
       </c>
-      <c r="E13" s="4">
-        <v>43895</v>
-      </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="D14" s="4">
-        <v>43887</v>
+        <v>43889</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43898</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>438</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="D15" s="4">
-        <v>43887</v>
+        <v>43889</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43898</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1152,13 +1458,10 @@
       <c r="D16" s="4">
         <v>43889</v>
       </c>
-      <c r="E16" s="4">
-        <v>43898</v>
-      </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>438</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1169,43 +1472,52 @@
       <c r="D17" s="4">
         <v>43889</v>
       </c>
-      <c r="E17" s="4">
-        <v>43898</v>
-      </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>242</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="D18" s="4">
-        <v>43889</v>
+        <v>43890</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43893</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43914</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="D19" s="4">
-        <v>43889</v>
+        <v>43890</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43893</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43914</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>589</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="4">
@@ -1223,7 +1535,7 @@
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>144</v>
+        <v>590</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -1237,13 +1549,10 @@
       <c r="E21" s="4">
         <v>43893</v>
       </c>
-      <c r="F21" s="4">
-        <v>43914</v>
-      </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -1257,15 +1566,12 @@
       <c r="E22" s="4">
         <v>43893</v>
       </c>
-      <c r="F22" s="4">
-        <v>43914</v>
-      </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>590</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="4">
@@ -1280,9 +1586,9 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>145</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="4">
@@ -1294,66 +1600,66 @@
       <c r="E24" s="4">
         <v>43893</v>
       </c>
+      <c r="F24" s="4">
+        <v>43914</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>429</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="4">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="D25" s="4">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="E25" s="4">
-        <v>43893</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>102</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="4">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="D26" s="4">
-        <v>43890</v>
+        <v>43908</v>
       </c>
       <c r="E26" s="4">
-        <v>43893</v>
-      </c>
-      <c r="F26" s="4">
         <v>43914</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>43893</v>
       </c>
       <c r="D27" s="4">
-        <v>43895</v>
+        <v>43908</v>
       </c>
       <c r="E27" s="4">
-        <v>43898</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>105</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="4">
@@ -1363,32 +1669,32 @@
         <v>43908</v>
       </c>
       <c r="E28" s="4">
-        <v>43914</v>
+        <v>43916</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43923</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4">
-        <v>43893</v>
+        <v>43908</v>
       </c>
       <c r="D29" s="4">
         <v>43908</v>
       </c>
-      <c r="E29" s="4">
-        <v>43921</v>
-      </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4">
         <v>43893</v>
@@ -1396,30 +1702,30 @@
       <c r="D30" s="4">
         <v>43908</v>
       </c>
-      <c r="E30" s="4">
-        <v>43916</v>
-      </c>
-      <c r="F30" s="4">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
-        <v>43908</v>
+        <v>43893</v>
       </c>
       <c r="D31" s="4">
         <v>43908</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="4">
+        <v>43916</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -1430,10 +1736,13 @@
       <c r="D32" s="4">
         <v>43908</v>
       </c>
+      <c r="E32" s="4">
+        <v>43923</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
@@ -1444,47 +1753,41 @@
       <c r="D33" s="4">
         <v>43908</v>
       </c>
-      <c r="E33" s="4">
-        <v>43916</v>
-      </c>
-      <c r="F33" s="4">
-        <v>43923</v>
-      </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D34" s="4">
         <v>43908</v>
       </c>
-      <c r="E34" s="4">
-        <v>43923</v>
-      </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D35" s="4">
-        <v>43908</v>
+        <v>43898</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43922</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
@@ -1493,12 +1796,15 @@
         <v>43894</v>
       </c>
       <c r="D36" s="4">
-        <v>43908</v>
+        <v>43895</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43922</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
@@ -1507,7 +1813,7 @@
         <v>43894</v>
       </c>
       <c r="D37" s="4">
-        <v>43898</v>
+        <v>43895</v>
       </c>
       <c r="E37" s="4">
         <v>43922</v>
@@ -1515,33 +1821,30 @@
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4">
-        <v>43894</v>
+        <v>43898</v>
       </c>
       <c r="D38" s="4">
-        <v>43895</v>
-      </c>
-      <c r="E38" s="4">
-        <v>43922</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4">
-        <v>43894</v>
+        <v>43898</v>
       </c>
       <c r="D39" s="4">
-        <v>43895</v>
+        <v>43905</v>
       </c>
       <c r="E39" s="4">
         <v>43922</v>
@@ -1549,7 +1852,7 @@
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
@@ -1558,12 +1861,15 @@
         <v>43898</v>
       </c>
       <c r="D40" s="4">
-        <v>43898</v>
+        <v>43905</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43922</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>43</v>
@@ -1580,7 +1886,7 @@
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
@@ -1597,58 +1903,64 @@
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="4">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="D43" s="4">
         <v>43905</v>
       </c>
       <c r="E43" s="4">
-        <v>43922</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>43898</v>
+        <v>43905</v>
       </c>
       <c r="D44" s="4">
-        <v>43905</v>
+        <v>43913</v>
       </c>
       <c r="E44" s="4">
-        <v>43922</v>
+        <v>43914</v>
+      </c>
+      <c r="F44" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="4">
-        <v>43900</v>
+        <v>43905</v>
       </c>
       <c r="D45" s="4">
-        <v>43905</v>
+        <v>43913</v>
       </c>
       <c r="E45" s="4">
-        <v>43921</v>
+        <v>43914</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>62</v>
+        <v>1143</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>49</v>
@@ -1657,285 +1969,267 @@
         <v>43905</v>
       </c>
       <c r="D46" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="E46" s="4">
-        <v>43914</v>
-      </c>
-      <c r="F46" s="4">
         <v>43916</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>63</v>
+        <v>515</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" s="4">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="D47" s="4">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="E47" s="4">
-        <v>43914</v>
-      </c>
-      <c r="F47" s="4">
-        <v>43916</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1143</v>
+        <v>647</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C48" s="4">
-        <v>43905</v>
-      </c>
-      <c r="D48" s="4">
-        <v>43914</v>
-      </c>
-      <c r="E48" s="4">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4">
-        <v>43905</v>
+        <v>43911</v>
+      </c>
+      <c r="D49" s="4">
+        <v>43913</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43914</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>515</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="D50" s="4">
-        <v>43916</v>
-      </c>
-      <c r="E50" s="4">
-        <v>43919</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>647</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C51" s="4">
-        <v>43911</v>
+        <v>43912</v>
+      </c>
+      <c r="D51" s="4">
+        <v>43913</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4">
-        <v>43911</v>
-      </c>
-      <c r="D52" s="4">
-        <v>43913</v>
-      </c>
-      <c r="E52" s="4">
-        <v>43914</v>
-      </c>
+        <v>43912</v>
+      </c>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4">
         <v>43912</v>
       </c>
-      <c r="D53" s="4">
-        <v>43913</v>
-      </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C54" s="4">
         <v>43912</v>
       </c>
-      <c r="D54" s="4">
-        <v>43913</v>
-      </c>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>123</v>
+        <v>714</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C55" s="4">
         <v>43912</v>
       </c>
-      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4">
-        <v>43912</v>
+        <v>43914</v>
+      </c>
+      <c r="D56" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" s="4">
-        <v>43912</v>
+        <v>43914</v>
+      </c>
+      <c r="D57" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>714</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C58" s="4">
-        <v>43912</v>
+        <v>43914</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43916</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C59" s="4">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="D59" s="4">
-        <v>43916</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C60" s="4">
-        <v>43914</v>
+        <v>43918</v>
       </c>
       <c r="D60" s="4">
-        <v>43916</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C61" s="4">
-        <v>43914</v>
+        <v>43918</v>
       </c>
       <c r="D61" s="4">
-        <v>43916</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C62" s="4">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="D62" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C63" s="4">
-        <v>43918</v>
-      </c>
-      <c r="D63" s="4">
         <v>43919</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C64" s="4">
-        <v>43918</v>
-      </c>
-      <c r="D64" s="4">
         <v>43919</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C65" s="4">
-        <v>43918</v>
-      </c>
-      <c r="D65" s="4">
         <v>43919</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>279</v>
+        <v>494</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C66" s="4">
         <v>43919</v>
@@ -1943,10 +2237,10 @@
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4">
         <v>43919</v>
@@ -1954,43 +2248,52 @@
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>132</v>
+        <v>617</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C68" s="4">
-        <v>43919</v>
+        <v>43921</v>
+      </c>
+      <c r="D68" s="4">
+        <v>43923</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>494</v>
+        <v>173</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C69" s="4">
-        <v>43919</v>
+        <v>43921</v>
+      </c>
+      <c r="D69" s="4">
+        <v>43923</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>416</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C70" s="4">
-        <v>43919</v>
+        <v>43921</v>
+      </c>
+      <c r="D70" s="4">
+        <v>43923</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>617</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C71" s="4">
         <v>43921</v>
@@ -2001,10 +2304,10 @@
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>173</v>
+        <v>654</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C72" s="4">
         <v>43921</v>
@@ -2015,66 +2318,57 @@
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C73" s="4">
-        <v>43921</v>
+        <v>43925</v>
       </c>
       <c r="D73" s="4">
-        <v>43923</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C74" s="4">
-        <v>43921</v>
-      </c>
-      <c r="D74" s="4">
-        <v>43923</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C75" s="4">
-        <v>43921</v>
-      </c>
-      <c r="D75" s="4">
-        <v>43923</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C76" s="4">
-        <v>43925</v>
-      </c>
-      <c r="D76" s="4">
         <v>43926</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>49</v>
+        <v>771</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C77" s="4">
         <v>43926</v>
@@ -2082,10 +2376,10 @@
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>709</v>
+        <v>387</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C78" s="4">
         <v>43926</v>
@@ -2093,10 +2387,10 @@
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4">
         <v>43926</v>
@@ -2104,10 +2398,10 @@
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>771</v>
+        <v>344</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C80" s="4">
         <v>43926</v>
@@ -2115,10 +2409,10 @@
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C81" s="4">
         <v>43926</v>
@@ -2126,43 +2420,43 @@
     </row>
     <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C82" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>344</v>
+        <v>917</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C83" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C84" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C85" s="4">
         <v>43927</v>
@@ -2170,10 +2464,10 @@
     </row>
     <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>917</v>
+        <v>680</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C86" s="4">
         <v>43927</v>
@@ -2181,91 +2475,100 @@
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>557</v>
+        <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="C87" s="4">
-        <v>43927</v>
+        <v>43931</v>
+      </c>
+      <c r="D87" s="4">
+        <v>43933</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C88" s="4">
-        <v>43927</v>
+        <v>43931</v>
+      </c>
+      <c r="D88" s="4">
+        <v>43933</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>680</v>
+        <v>237</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C89" s="4">
-        <v>43927</v>
+        <v>43931</v>
+      </c>
+      <c r="D89" s="4">
+        <v>43933</v>
+      </c>
+      <c r="E89" s="4">
+        <v>43935</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C90" s="4">
         <v>43931</v>
       </c>
       <c r="D90" s="4">
-        <v>43933</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C91" s="4">
         <v>43931</v>
       </c>
       <c r="D91" s="4">
-        <v>43933</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C92" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D92" s="4">
         <v>43933</v>
       </c>
-      <c r="E92" s="4">
-        <v>43935</v>
-      </c>
     </row>
     <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C93" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D93" s="4">
         <v>43935</v>
@@ -2273,181 +2576,172 @@
     </row>
     <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C94" s="4">
-        <v>43931</v>
-      </c>
-      <c r="D94" s="4">
-        <v>43935</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C95" s="4">
         <v>43932</v>
       </c>
-      <c r="D95" s="4">
-        <v>43933</v>
-      </c>
     </row>
     <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C96" s="4">
         <v>43932</v>
       </c>
-      <c r="D96" s="4">
-        <v>43935</v>
-      </c>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C97" s="4">
         <v>43932</v>
       </c>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C98" s="4">
         <v>43932</v>
       </c>
+      <c r="D98" s="4">
+        <v>43933</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>143</v>
+        <v>445</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C99" s="4">
-        <v>43932</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C100" s="4">
-        <v>43932</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>43936</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C101" s="4">
-        <v>43932</v>
-      </c>
-      <c r="D101" s="4">
-        <v>43933</v>
-      </c>
+        <v>43937</v>
+      </c>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>445</v>
+        <v>208</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C102" s="4">
-        <v>43935</v>
-      </c>
+        <v>43937</v>
+      </c>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="C103" s="4">
-        <v>43936</v>
-      </c>
+        <v>43938</v>
+      </c>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C104" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>208</v>
+        <v>433</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C105" s="4">
-        <v>43937</v>
-      </c>
-      <c r="D105" s="4"/>
+        <v>43943</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C106" s="4">
-        <v>43938</v>
-      </c>
-      <c r="D106" s="4"/>
+        <v>43943</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>37</v>
+        <v>752</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C107" s="4">
-        <v>43938</v>
-      </c>
-      <c r="D107" s="4"/>
+        <v>43943</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C108" s="4">
         <v>43943</v>
@@ -2455,43 +2749,43 @@
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>79</v>
+        <v>785</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C109" s="4">
-        <v>43943</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>752</v>
+        <v>200</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C110" s="4">
-        <v>43943</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>127</v>
+        <v>1091</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C111" s="4">
-        <v>43943</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>785</v>
+        <v>301</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C112" s="4">
         <v>43946</v>
@@ -2499,10 +2793,10 @@
     </row>
     <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>200</v>
+        <v>695</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C113" s="4">
         <v>43946</v>
@@ -2510,43 +2804,43 @@
     </row>
     <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1091</v>
+        <v>1192</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C114" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C115" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>695</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C116" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>1192</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C117" s="4">
         <v>43947</v>
@@ -2554,10 +2848,10 @@
     </row>
     <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C118" s="4">
         <v>43947</v>
@@ -2565,10 +2859,10 @@
     </row>
     <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C119" s="4">
         <v>43947</v>
@@ -2576,10 +2870,10 @@
     </row>
     <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C120" s="4">
         <v>43947</v>
@@ -2587,10 +2881,10 @@
     </row>
     <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>110</v>
+        <v>979</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C121" s="4">
         <v>43947</v>
@@ -2598,54 +2892,54 @@
     </row>
     <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C122" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C123" s="4">
-        <v>43947</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>979</v>
+        <v>367</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C124" s="4">
-        <v>43947</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C125" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C126" s="4">
         <v>43949</v>
@@ -2653,10 +2947,10 @@
     </row>
     <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>367</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C127" s="4">
         <v>43949</v>
@@ -2664,43 +2958,43 @@
     </row>
     <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C128" s="4">
-        <v>43949</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C129" s="4">
-        <v>43949</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C130" s="4">
-        <v>43949</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C131" s="4">
         <v>43953</v>
@@ -2708,10 +3002,10 @@
     </row>
     <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C132" s="4">
         <v>43953</v>
@@ -2719,10 +3013,10 @@
     </row>
     <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>371</v>
+        <v>231</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C133" s="4">
         <v>43953</v>
@@ -2730,10 +3024,10 @@
     </row>
     <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>461</v>
+        <v>191</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C134" s="4">
         <v>43953</v>
@@ -2741,10 +3035,10 @@
     </row>
     <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C135" s="4">
         <v>43953</v>
@@ -2752,43 +3046,43 @@
     </row>
     <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C136" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C137" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C138" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>56</v>
+        <v>493</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C139" s="4">
         <v>43954</v>
@@ -2796,10 +3090,10 @@
     </row>
     <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>349</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C140" s="4">
         <v>43954</v>
@@ -2807,10 +3101,10 @@
     </row>
     <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C141" s="4">
         <v>43954</v>
@@ -2818,63 +3112,33 @@
     </row>
     <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>493</v>
+        <v>706</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C142" s="4">
         <v>43954</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>146</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" s="4">
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>232</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C144" s="4">
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>706</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C145" s="4">
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3160,9 +3424,6 @@
     <row r="443" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="444" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="445" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3171,1065 +3432,572 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>43876</v>
-      </c>
-      <c r="D2" s="4">
-        <v>43878</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43876</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43878</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>43876</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43878</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43876</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43878</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>88</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>43876</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43878</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>43876</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43878</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>283</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>43876</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43878</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>155</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>43878</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>641</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>43879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>622</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>43879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>239</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>43886</v>
-      </c>
-      <c r="D12" s="4">
-        <v>43887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>43886</v>
-      </c>
-      <c r="D13" s="4">
-        <v>43887</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    </row>
+    <row r="78" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4">
-        <v>43886</v>
-      </c>
-      <c r="D14" s="4">
-        <v>43887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <v>43886</v>
-      </c>
-      <c r="D15" s="4">
-        <v>43887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>76</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>43888</v>
-      </c>
-      <c r="D16" s="4">
-        <v>43889</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>438</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4">
-        <v>43888</v>
-      </c>
-      <c r="D17" s="4">
-        <v>43889</v>
-      </c>
-      <c r="E17" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>242</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>43888</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    </row>
+    <row r="96" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4">
-        <v>43888</v>
-      </c>
-      <c r="D19" s="4">
-        <v>43889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>589</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4">
-        <v>43889</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43890</v>
-      </c>
-      <c r="E20" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>144</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4">
-        <v>43889</v>
-      </c>
-      <c r="D21" s="4">
-        <v>43890</v>
-      </c>
-      <c r="E21" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>94</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
-        <v>43889</v>
-      </c>
-      <c r="D22" s="4">
-        <v>43890</v>
-      </c>
-      <c r="E22" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>590</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4">
-        <v>43889</v>
-      </c>
-      <c r="D23" s="4">
-        <v>43890</v>
-      </c>
-      <c r="E23" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>145</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4">
-        <v>43889</v>
-      </c>
-      <c r="D24" s="4">
-        <v>43890</v>
-      </c>
-      <c r="E24" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>429</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4">
-        <v>43889</v>
-      </c>
-      <c r="D25" s="4">
-        <v>43890</v>
-      </c>
-      <c r="E25" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>102</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4">
-        <v>43889</v>
-      </c>
-      <c r="D26" s="4">
-        <v>43890</v>
-      </c>
-      <c r="E26" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4">
-        <v>43893</v>
-      </c>
-      <c r="D27" s="4">
-        <v>43895</v>
-      </c>
-      <c r="E27" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>105</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>226</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>98</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>104</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>111</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>297</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>236</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4">
-        <v>43894</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>77</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="4">
-        <v>43894</v>
-      </c>
-      <c r="D36" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>46</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4">
-        <v>43894</v>
-      </c>
-      <c r="D37" s="4">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>47</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="4">
-        <v>43894</v>
-      </c>
-      <c r="D38" s="4">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>50</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="4">
-        <v>43898</v>
-      </c>
-      <c r="D39" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="4">
-        <v>43898</v>
-      </c>
-      <c r="D40" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>90</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="4">
-        <v>43898</v>
-      </c>
-      <c r="D41" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="4">
-        <v>43898</v>
-      </c>
-      <c r="D42" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="4">
-        <v>43898</v>
-      </c>
-      <c r="D43" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>17</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="4">
-        <v>43900</v>
-      </c>
-      <c r="D44" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="4">
-        <v>43900</v>
-      </c>
-      <c r="D45" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>62</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="4">
-        <v>43905</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>63</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="4">
-        <v>43905</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>1143</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>120</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="4">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>647</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>64</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>121</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>122</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>123</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>188</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>309</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>714</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>433</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>515</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>127</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>126</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>200</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>529</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>55</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>45</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>69</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>50</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>367</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>33</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>74</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>240</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>153</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>2</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>206</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>23</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>237</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>148</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>138</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>141</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>24</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>234</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>328</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>143</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>19</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>203</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    </row>
+    <row r="99" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>72</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="103" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B08AC-823D-4F2E-8C67-190C2B7FF4D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C20394-4B31-44C7-8FFF-F4753B6028AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="4" r:id="rId1"/>
     <sheet name="plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="plan2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="287">
   <si>
     <t>Two sum</t>
   </si>
@@ -804,13 +804,142 @@
   </si>
   <si>
     <t>20 Valid Parentheses -     2 variable linear time. </t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>Aug 5th
+1.DoubleList(int size), 2: addToFirst(ListNode node)
+node.next = head.next;
+ node.pre = head;
+3：get(int key) 直接调用put方法
+TIME: 30 minus. 3 errors</t>
+  </si>
+  <si>
+    <t>14. Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>709. To Lower Case</t>
+  </si>
+  <si>
+    <t>Aug 8th 
+chars[i] = (char)(chars[i] - 'A' + 'a');</t>
+  </si>
+  <si>
+    <t>58. Length of Last Word</t>
+  </si>
+  <si>
+    <t>Aug 8th
+ String s1 = s.trim(); // 要去头尾
+        String[] strs = s1.split(" ");</t>
+  </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 8th
+ if(chars[s.charAt(j) - 'a'] == 1) return j;
+</t>
+  </si>
+  <si>
+    <t>Aug 8th
+1: think like 2D array and use first string as reference.</t>
+  </si>
+  <si>
+    <t>10. Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Aug 8th
+Understand the answer basically.</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>Aug 8th
+2 pointer, char tmp = a[i]; a[i++] = a[j]; a[j--] = tmp;</t>
+  </si>
+  <si>
+    <t>541. Reverse String II</t>
+  </si>
+  <si>
+    <t>151. Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>Aug 8th
+1: no need to use two pointers to reverse String[];
+2: s.split(" "); case: "a        b", so need check empty after trim();</t>
+  </si>
+  <si>
+    <t>Aug 8th
+1: need think about k &gt; s.legnth() case
+2:  for (int start = 0; start &lt; a.length; start += 2 * k) {
+int i = start, j = Math.min(start + k - 1, a.length - 1);
+}</t>
+  </si>
+  <si>
+    <t>Aug 9th,
+Understand answer more</t>
+  </si>
+  <si>
+    <t>917. Reverse Only Letters</t>
+  </si>
+  <si>
+    <t>Aug 9th
+1: Character.isLetter(); 2: use stack to store it in first run; 3: use StringBuilder</t>
+  </si>
+  <si>
+    <t>144. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Aug 9th
+1: know iterative way to do it. Use stack.</t>
+  </si>
+  <si>
+    <t>3.Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Aug 9th:
+1: use hashmap to store latest position, then update left</t>
+  </si>
+  <si>
+    <t>5:Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 9th
+</t>
+  </si>
+  <si>
+    <t>Aug 11th</t>
+  </si>
+  <si>
+    <t>Aug 11th
+once define node use  value-key order
+but when use it as key-value order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 11th
+</t>
+  </si>
+  <si>
+    <t>72. Edit Distance</t>
+  </si>
+  <si>
+    <t>Aug 13th
+1: how to iniciate it 2:  dp[i][j] = Math.min(dp[i][j - 1], 
+                                        Math.min(dp[i - 1][j],dp[i - 1][j - 1])) + 1; 
+Don't for get plus one;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +966,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -858,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -877,6 +1019,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
@@ -4005,13 +4158,332 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E066FCA-69E9-4B52-92D4-A21C62259647}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF1E73-B9B1-43EF-A5C0-C57902A60959}">
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C20394-4B31-44C7-8FFF-F4753B6028AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206DD3C-C8EE-4694-BA76-A0CF004483F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,6 +13,7 @@
     <sheet name="plan2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="419">
   <si>
     <t>Two sum</t>
   </si>
@@ -933,6 +934,545 @@
 1: how to iniciate it 2:  dp[i][j] = Math.min(dp[i][j - 1], 
                                         Math.min(dp[i - 1][j],dp[i - 1][j - 1])) + 1; 
 Don't for get plus one;</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>Aug 11th
+1: map.keySet() is key set not value set; 
+2: know what means once 3 - 'a' = 'd'</t>
+  </si>
+  <si>
+    <t>Aug13th</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Aug 11th 
+// 双指针嵌套WHILE的写法, 消除两边不合法的</t>
+  </si>
+  <si>
+    <t>680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>Aug 11th
+1: when not matching happen either side having problem or both side having problem, just skip check both of them in skip case</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug15
+Able to pass it. 
+for (int[] pairs: prerequisites){
+              indegree[pairs[0]]++;
+             adjTable.get(pairs[1]).add(pairs[0]);
+          }
+</t>
+  </si>
+  <si>
+    <t>Aug15th
+1: understand answer,topologic sort</t>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>Aug 17th
+1:  temp.remove(temp.size() - 1);2: used[]3: no need add level</t>
+  </si>
+  <si>
+    <t>77. Combinations</t>
+  </si>
+  <si>
+    <t>Aug 17th
+1: know difference between permutations, and it is start from 1;</t>
+  </si>
+  <si>
+    <t>47. Permutations II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 17th
+1: Arrays.sort(nums) 2:  if (i &gt; 0 &amp;&amp; nums[i - 1] == nums[i] &amp;&amp; used[i - 1]) continue; </t>
+  </si>
+  <si>
+    <t>40. Combination Sum II</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 18th
+1: how to use target, 2: like permutations or combinations ? 3: once we need reuse element, how to do it </t>
+  </si>
+  <si>
+    <t>Aug 17th
+1: know how similar with combinations.
+2: For subsets II :  if (i &gt; start &amp;&amp; nums[i] == nums[i - 1]) continue; // i &gt; start. not i &gt; 0;</t>
+  </si>
+  <si>
+    <t>78. Subsets(I and II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aug 18th</t>
+  </si>
+  <si>
+    <t>Aug 22th; 
+pass it
+map.put(key,newNode); not map.add();</t>
+  </si>
+  <si>
+    <t>Aug 22th</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 22th
+ if (carry != 0)  cur.next = new ListNode(carry);
+        </t>
+  </si>
+  <si>
+    <t>138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 22th
+if (left == right) return lists[left]; return condition 2: how to use PriorityQueue
+</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>973. K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <r>
+      <t>Aug 22th
+Map&lt;Node, Node&gt; map
+ map.get(cur).next = map.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cur.next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+  map.get(cur).random = map.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cur.random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">);
+First copy node value and then copy two pointers value
+        </t>
+    </r>
+  </si>
+  <si>
+    <t>253. Meeting Rooms II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug25 th
+Sort + PriorityQueue
+</t>
+  </si>
+  <si>
+    <t>Aug 22 th
+DFS/BFS/UNION FIND</t>
+  </si>
+  <si>
+    <t>Aug 22 th
+PriorityQueue</t>
+  </si>
+  <si>
+    <t>Aug 22 th</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>301. Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Aug 25th
+Binary search change</t>
+  </si>
+  <si>
+    <t>Aug 25th
+1: spliter, nullVal, StringBuilder, Queue, serializeHelper, deserializeHelper</t>
+  </si>
+  <si>
+    <t>Aug 25 th
+BFS 每次只删除一个括号 然后看看这一层中有没有合法的
+if(found) continue;  String temp = s.substring(0, i) + s.substring(i + 1);</t>
+  </si>
+  <si>
+    <t>232. Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug26th
+1: two stacks. 2: need careful once do pop() and peek()
+</t>
+  </si>
+  <si>
+    <t>8. String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Aug 26th
+1 many edge condition.</t>
+  </si>
+  <si>
+    <t>62. Unique Paths</t>
+  </si>
+  <si>
+    <t>63. Unique Paths II</t>
+  </si>
+  <si>
+    <t>Aug 26th
+DP</t>
+  </si>
+  <si>
+    <t>Aug 26th
+1: how to make space compress</t>
+  </si>
+  <si>
+    <t>695. Max Area of Island</t>
+  </si>
+  <si>
+    <t>Aug 29th
+similer like 200, sum = 1 + geArea(a,b,c d);</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>Aug 29th
+DFS + backtracking. (inArea(I, j) must before visited(I, j))</t>
+  </si>
+  <si>
+    <t>212. Word Search II</t>
+  </si>
+  <si>
+    <t>Aug 29th
+Trie + DFS.</t>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>Aug 29th
+memo + recursion. Dp</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Aug 30th
+presum + hashmap. Map.put(sum, sumAmountSofar), map.put(0,1);</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Aug 30th
+quick sort, or PriorityQueue</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>Aug 30th
+DP
+ int step1 = Integer.valueOf(s.substring(i-1, i));
+  int step2 = Integer.valueOf(s.substring(i-2,i));</t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t>Aug 30th
+1: need to know where to put char[] curChar = cur.toCharArray();
+2:   for (char c = 'a'; c &lt;= 'z'; c ++){ curChar[j] = c;}
+3: BFS     4:   Set&lt;String&gt; wordSet = new HashSet&lt;&gt;(wordList);</t>
+  </si>
+  <si>
+    <t>Aug 30th
+1 : while inside another while, 2: check overlap this end compare with next start. 3: pick biger between this end and next end.4:
+Arrays.sort(intervals, (a,b) -&gt; a[0] - b[0]); // -&gt; not =&gt;</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>Aug 31th
+if (p == null &amp;&amp; q == null) return true;
+  if (p == null || q == null || p.val != q.val) return false;</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 31th
+mid order travesal iterative way. TreeNode pre = null;
+if (pre!= null &amp;&amp; node.val &lt;= pre.val) return false; // need less equals
+</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 31th
+</t>
+  </si>
+  <si>
+    <t>986. Interval List Intersections</t>
+  </si>
+  <si>
+    <t>Aug 31th
+/*1:if b2 &lt; a1 or a2 &lt; b1: [a1,a2] 和 [b1,b2] 无交集
+2:   # 不等号取反，or 也要变成 and
+ if b2 &gt;= a1 and a2 &gt;= b1: [a1,a2] 和 [b1,b2] 存在交集
+3:如果交集区间是 [c1,c2]，那么 c1=max(a1,b1)，c2=min(a2,b2)
+4: i j move 只取决于 a2 和 b2 的大小关系*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 31th
+for (int i = start; i &lt; candidates.length; i ++) 
+</t>
+  </si>
+  <si>
+    <t>Aug26th
+can use Deque.addLast(nums[i]) and Deque.removeLast();  used[i] = true;  used[i] = false;</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>929. Unique Email Addresses</t>
+  </si>
+  <si>
+    <t>1011. Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>Aug 31th</t>
+  </si>
+  <si>
+    <t>Aug 31th
+binary search, greaterThenD</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>Sep 1th
+inOrder reverse direction, right-&gt;root-&gt;left. From largest to smallest in BST</t>
+  </si>
+  <si>
+    <t>703. Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>Sep 1th
+PriorityQueue</t>
+  </si>
+  <si>
+    <t>776. Split BST</t>
+  </si>
+  <si>
+    <t>Sept 1th
+Know how to do it in recursive way</t>
+  </si>
+  <si>
+    <t>Sep 1th
+Topologic sort</t>
+  </si>
+  <si>
+    <t>227. Basic Calculator II</t>
+  </si>
+  <si>
+    <t>sep 1th
+split to small question: sign, num*10 + (c - '0')
+reset num and sign. Do * / first and think it as +,</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 1th
+Two binary search. </t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Sep 2th
+1: current location water can contain depends on Math.min(leftMax,rightMax) - height[current]. 2: use two pointers and two index mark leftMax and rightMax.3: you only care about leftMax in left point. You don't care about if at that moment right / left is largest leftMax and rightMax.</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>Sep 2th
+1: two pointers, 2: move smaller one and recaluculate. Math.max(max , w* l);</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Sep 2th
+check answer:)</t>
+  </si>
+  <si>
+    <t>35. Search Insert Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 2th
+Binary search if not found return low </t>
+  </si>
+  <si>
+    <t>674. Longest Continuous Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 2th
+</t>
+  </si>
+  <si>
+    <t>1143. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Sep 3th
+classic  2d DP, column as one string and row as another.</t>
+  </si>
+  <si>
+    <t>409. Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Sep 4th
+Using hashSet to remove duplicate.</t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix</t>
+  </si>
+  <si>
+    <t>59. Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Sep 4th
+Draw pictures, and put 4  bounds. Using total number as index</t>
+  </si>
+  <si>
+    <t>Sep 4th
+Draw pictures, and put 4  bounds. Using current value as index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 5th
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 5th
+1: backtracking. 2:  if(digits.length() != 0) {} // don't miss this.
+3:  String c = digits.substring(i, i + 1);  //  can't use Integer.valueOf(digits.charAt(i)); 
+4: don't forget return; 
+5:  for (int i = start; i &lt; digits.length(); i ++ )  // i = start;
+</t>
+  </si>
+  <si>
+    <t>Sep 5rh
+ ans = ans^ num;</t>
+  </si>
+  <si>
+    <t>Sep 5th
+read answer</t>
+  </si>
+  <si>
+    <t>Sep 5th
+1: front[i] means the front product element except itself;
+2: back[i] means the back product value except itself
+3: res[i] = front[i] * back[i]</t>
+  </si>
+  <si>
+    <t>426. Convert Binary Search Tree to Sorted Doubly Linked List</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Sep 5th
+1 2 pointers. Remember when to start slow. N or N + 1; when to end fast, fast != null or fast.next != null;</t>
+  </si>
+  <si>
+    <t>Sep 5th
+Node cur = root; Node first = null; Node last = null;</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>Sep 5th
+1 if n &lt; 0; 2: double half = myNewPow(x, n/2);</t>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Sep 6th
+post order, left right root. And how to deal with root with global variable. 2: when to return and return type</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,6 +1570,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,18 +4709,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF1E73-B9B1-43EF-A5C0-C57902A60959}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="33" style="11" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
@@ -4182,10 +4732,10 @@
       <c r="B1" s="11">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="11">
         <v>3</v>
       </c>
       <c r="E1">
@@ -4202,8 +4752,11 @@
       <c r="B2" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>283</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4213,7 +4766,7 @@
       <c r="B3" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4224,7 +4777,6 @@
       <c r="B4" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4233,7 +4785,6 @@
       <c r="B5" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4242,7 +4793,6 @@
       <c r="B6" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4251,7 +4801,7 @@
       <c r="B7" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4262,7 +4812,6 @@
       <c r="B8" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -4271,7 +4820,6 @@
       <c r="B9" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -4280,7 +4828,6 @@
       <c r="B10" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4289,7 +4836,6 @@
       <c r="B11" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4298,7 +4844,6 @@
       <c r="B12" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -4307,7 +4852,7 @@
       <c r="B13" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4318,7 +4863,9 @@
       <c r="B14" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="13" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4328,71 +4875,530 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>354</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>367</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>374</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>379</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>393</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>395</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>398</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>399</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>400</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>401</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>402</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>417</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4481,7 +5487,6 @@
     <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206DD3C-C8EE-4694-BA76-A0CF004483F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B91965-28B1-415B-ABCF-B96337797B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,6 @@
     <sheet name="plan2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="425">
   <si>
     <t>Two sum</t>
   </si>
@@ -1473,6 +1472,24 @@
   <si>
     <t>Sep 6th
 post order, left right root. And how to deal with root with global variable. 2: when to return and return type</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Sep 12th</t>
+  </si>
+  <si>
+    <t>173. Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>211. Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t>199. Binary Tree Right Side View</t>
   </si>
 </sst>
 </file>
@@ -4711,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF1E73-B9B1-43EF-A5C0-C57902A60959}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,24 +5414,66 @@
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>419</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>422</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>423</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>424</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B91965-28B1-415B-ABCF-B96337797B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD16A6A7-D825-44E9-B0A8-F510DAB9C1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="4" r:id="rId1"/>
     <sheet name="plan" sheetId="2" r:id="rId2"/>
     <sheet name="plan2" sheetId="5" r:id="rId3"/>
+    <sheet name="problem1~50" sheetId="6" r:id="rId4"/>
+    <sheet name="problem 51~100" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="552">
   <si>
     <t>Two sum</t>
   </si>
@@ -1491,12 +1493,395 @@
   <si>
     <t>199. Binary Tree Right Side View</t>
   </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Day4</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>1:Two Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:Add Two Numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">200: Number of Islands </t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>DFS,BFS, UNION FIND</t>
+  </si>
+  <si>
+    <t>containsKey not contains</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>42:Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>937:Reorder Data in Log Files</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>Two pointer</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146: LRU Cache </t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53:Maximum Subarray  </t>
+  </si>
+  <si>
+    <t>Array,DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:3Sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:Longest Substring Without Repeating Characters </t>
+  </si>
+  <si>
+    <t>21: Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4: Median of Two Sorted Arrays  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">91: Decode Ways </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: Merge k Sorted Lists </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: Valid Parentheses </t>
+  </si>
+  <si>
+    <t>238: Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">829: Consecutive Numbers Sum </t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273: Integer to English Words  </t>
+  </si>
+  <si>
+    <t>56: Merge Intervals</t>
+  </si>
+  <si>
+    <t>Array,Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">953: Verifying an Alien Dictionary </t>
+  </si>
+  <si>
+    <t>1192: Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560: Subarray Sum Equals K  </t>
+  </si>
+  <si>
+    <t>973: K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>31: Next Permutation</t>
+  </si>
+  <si>
+    <t>206: Reverse Linked List</t>
+  </si>
+  <si>
+    <t>692: Top K Frequent Words</t>
+  </si>
+  <si>
+    <t>1249:Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>11: Container With Most Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394: Decode String </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85:Maximal Rectangle </t>
+  </si>
+  <si>
+    <t>121: Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322: Coin Change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: Generate Parentheses  </t>
+  </si>
+  <si>
+    <t>76: Minimum Window Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221: Maximal Square  </t>
+  </si>
+  <si>
+    <t>54: Spiral Matrix</t>
+  </si>
+  <si>
+    <t>415:Add Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253:Meeting Rooms II </t>
+  </si>
+  <si>
+    <t>68:Text Justification</t>
+  </si>
+  <si>
+    <t>312:Burst Balloons</t>
+  </si>
+  <si>
+    <t>380:Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:Reverse Integer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">763:Partition Labels </t>
+  </si>
+  <si>
+    <t>269:Alien Dictionary</t>
+  </si>
+  <si>
+    <t>46:Permutations</t>
+  </si>
+  <si>
+    <t>994:Rotting Oranges</t>
+  </si>
+  <si>
+    <t>10:Regular Expression Matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420:Strong Password Checker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">215:Kth Largest Element in an Array </t>
+  </si>
+  <si>
+    <t>33:Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>String HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.DoubleList(int size), 2: addToFirst(ListNode node) node.next = head.next; node.pre = head;
+3：get(int key) 直接调用put方法 4: 定义时候是KEY-VALUE 用的时候变成VALUE-KEY了 5：map.put(key,newNode); not map.add();
+</t>
+  </si>
+  <si>
+    <t>Forgot  if (carry != 0)  cur.next = new ListNode(carry);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: Letter Combinations of a Phone Number </t>
+  </si>
+  <si>
+    <t>79:Word Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88:Merge Sorted Array </t>
+  </si>
+  <si>
+    <t>297:Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199:Binary Tree Right Side View </t>
+  </si>
+  <si>
+    <t>127:Word Ladder</t>
+  </si>
+  <si>
+    <t>295:Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>49:Group Anagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">588:Design In-Memory File System  </t>
+  </si>
+  <si>
+    <t>25:Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138:Copy List with Random Pointer </t>
+  </si>
+  <si>
+    <t>140:Word Break II</t>
+  </si>
+  <si>
+    <t>6:ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>239:Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128:Longest Consecutive Sequence </t>
+  </si>
+  <si>
+    <t>301:Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>124:Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>780:Reaching Points</t>
+  </si>
+  <si>
+    <t>224:Basic Calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139:Word Break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">227:Basic Calculator II </t>
+  </si>
+  <si>
+    <t>1396:Design Underground System</t>
+  </si>
+  <si>
+    <t>460:LFU Cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176:Second Highest Salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">981:Time Based Key-Value Store  </t>
+  </si>
+  <si>
+    <t>767:Reorganize String</t>
+  </si>
+  <si>
+    <t>528:Random Pick with Weight</t>
+  </si>
+  <si>
+    <t>680:Valid Palindrome II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92:Reverse Linked List II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">442:Find All Duplicates in an Array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">706:Design HashMap  </t>
+  </si>
+  <si>
+    <t>283:Move Zeroes</t>
+  </si>
+  <si>
+    <t>13:Roman to Integer</t>
+  </si>
+  <si>
+    <t>234:Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>45:Jump Game II</t>
+  </si>
+  <si>
+    <t>300:Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>347:Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>412:Fizz Buzz</t>
+  </si>
+  <si>
+    <t>987:Vertical Order Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t>48:Rotate Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105:Construct Binary Tree from Preorder and Inorder Traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">445:Add Two Numbers II </t>
+  </si>
+  <si>
+    <t>84:Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148:Sort List </t>
+  </si>
+  <si>
+    <t>211:Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>518:Coin Change 2</t>
+  </si>
+  <si>
+    <t>64:Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>67:Add Binary</t>
+  </si>
+  <si>
+    <t>202:Happy Number</t>
+  </si>
+  <si>
+    <t>986:Interval List Intersections</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +1921,26 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1557,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1598,6 +2003,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -4154,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF1E73-B9B1-43EF-A5C0-C57902A60959}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,7 +5424,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>316</v>
       </c>
@@ -5019,7 +5432,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>317</v>
       </c>
@@ -5027,7 +5440,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>318</v>
       </c>
@@ -5035,7 +5448,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -5550,4 +5963,1109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4916E59A-E410-4F0D-B211-B747613DE85F}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="98.42578125" customWidth="1"/>
+    <col min="8" max="8" width="78.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>44065</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>44065</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>44065</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>44065</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>44072</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>44072</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>44072</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>44072</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>44072</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>44079</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>44079</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>44079</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>44079</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>44086</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>44086</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>44086</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>44086</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>44093</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>44093</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>44093</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>44093</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>44100</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>44100</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>44100</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>44100</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>44100</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>44107</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>44107</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>44107</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>44108</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>44108</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCCFC0B-F744-4504-AE68-399CB9A3279D}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="111.5703125" customWidth="1"/>
+    <col min="8" max="8" width="96.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="E23" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="E24" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="E25" s="18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="E26" s="18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="E27" s="16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="E28" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="E29" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="E30" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="E31" s="16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="16" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD16A6A7-D825-44E9-B0A8-F510DAB9C1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F8E90C-E8C4-47DE-A48B-38AAD2E9730F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="plan2" sheetId="5" r:id="rId3"/>
     <sheet name="problem1~50" sheetId="6" r:id="rId4"/>
     <sheet name="problem 51~100" sheetId="7" r:id="rId5"/>
+    <sheet name="problem101~150" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="603">
   <si>
     <t>Two sum</t>
   </si>
@@ -1875,6 +1876,159 @@
   </si>
   <si>
     <t>986:Interval List Intersections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:Longest Common Prefix </t>
+  </si>
+  <si>
+    <t>209:Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>155:Min Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131:Palindrome Partitioning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">158:Read N Characters Given Read4 II - Call multiple times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136:Single Number   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:Palindrome Number    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">759:Employee Free Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">543:Diameter of Binary Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">819:Most Common Word </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32:Longest Valid Parentheses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1283:Find the Smallest Divisor Given a Threshold </t>
+  </si>
+  <si>
+    <t>443:String Compression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1152:Analyze User Website Visit Pattern </t>
+  </si>
+  <si>
+    <t>621:Task Scheduler</t>
+  </si>
+  <si>
+    <t>143:Reorder List</t>
+  </si>
+  <si>
+    <t>70:Climbing Stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:String to Integer (atoi) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37:Sudoku Solver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">341:Flatten Nested List Iterator </t>
+  </si>
+  <si>
+    <t>1197:Minimum Knight Moves</t>
+  </si>
+  <si>
+    <t>18:4Sum</t>
+  </si>
+  <si>
+    <t>34:Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362:Design Hit Counter </t>
+  </si>
+  <si>
+    <t>78:Subsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863:All Nodes Distance K in Binary Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">173:Binary Search Tree Iterator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">236:Lowest Common Ancestor of a Binary Tree </t>
+  </si>
+  <si>
+    <t>739:Daily Temperatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212:Word Search II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">287:Find the Duplicate Number </t>
+  </si>
+  <si>
+    <t>438:Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>472:Concatenated Words</t>
+  </si>
+  <si>
+    <t>387:First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>72:Edit Distance</t>
+  </si>
+  <si>
+    <t>98:Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240:Search a 2D Matrix II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210:Course Schedule II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51:N-Queens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">695:Max Area of Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">103:Binary Tree Zigzag Level Order Traversal </t>
+  </si>
+  <si>
+    <t>289:Game of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125:Valid Palindrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">403:Frog Jump </t>
+  </si>
+  <si>
+    <t>636:Exclusive Time of Functions</t>
+  </si>
+  <si>
+    <t>41:First Missing Positive</t>
+  </si>
+  <si>
+    <t>203:Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93:Restore IP Addresses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:Integer to Roman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">547:Friend Circles </t>
+  </si>
+  <si>
+    <t>递归算法的时间复杂度怎么计算？子问题个数乘以解决一个子问题需要的时间。</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +2116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2011,6 +2165,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5141,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF1E73-B9B1-43EF-A5C0-C57902A60959}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4916E59A-E410-4F0D-B211-B747613DE85F}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6073,7 +6228,6 @@
         <v>437</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
         <v>442</v>
       </c>
@@ -6223,7 +6377,9 @@
         <v>436</v>
       </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>602</v>
+      </c>
       <c r="I12" s="16" t="s">
         <v>460</v>
       </c>
@@ -6596,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCCFC0B-F744-4504-AE68-399CB9A3279D}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7068,4 +7224,481 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E3B601-554A-49EC-A86F-6676B11BF0FD}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="E23" s="16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="E24" s="21" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="E25" s="18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="E26" s="18" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="E27" s="16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="E28" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="E29" s="16" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="E30" s="16" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="E31" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F8E90C-E8C4-47DE-A48B-38AAD2E9730F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122740C-11C3-4FB5-9A50-C26CFEE96D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="problem1~50" sheetId="6" r:id="rId4"/>
     <sheet name="problem 51~100" sheetId="7" r:id="rId5"/>
     <sheet name="problem101~150" sheetId="8" r:id="rId6"/>
+    <sheet name="Topic" sheetId="10" r:id="rId7"/>
+    <sheet name="Topic2" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="640">
   <si>
     <t>Two sum</t>
   </si>
@@ -2030,12 +2032,190 @@
   <si>
     <t>递归算法的时间复杂度怎么计算？子问题个数乘以解决一个子问题需要的时间。</t>
   </si>
+  <si>
+    <t>DP，memo+recursion</t>
+  </si>
+  <si>
+    <t>dp[0] = 0; 是 i - coins[j] &gt; 0 并且 dp[i-coins[j]] &lt; min 才进行min 更新；
+ 状态之间的min不影响 所以min的位置要注意</t>
+  </si>
+  <si>
+    <t>String,palindromic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s.charAt(l) == s.charAt    not s.charAt(l).equals(s.charAt)</t>
+  </si>
+  <si>
+    <t>int s.substring(low, low + maxLen); maintains low and maxLen;</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>char[] letters = word.toCharArray(); // put inside  for (char l = 'a'; l &lt;= 'z'; l ++){  letters[j] = l;  String nextWord = new String(letters); if(!visited.contains(nextWord) &amp;&amp; wordSet.contains(nextWord)){</t>
+  </si>
+  <si>
+    <t>java 8 way to write comparator</t>
+  </si>
+  <si>
+    <r>
+      <t>dp[i] = Math.max(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nums[i] + dp[i - 1]); // // 要么自成一派，要么和前面的子数组合并</t>
+    </r>
+  </si>
+  <si>
+    <t>DFS会爆栈 （不容易控制）BFS 耗内存大 但是我们可以控制队列,注意DFS和BFS标记什么时候以及访问过的节点时候的不一样</t>
+  </si>
+  <si>
+    <t>547. Friend Circles</t>
+  </si>
+  <si>
+    <t>记录该字符串最后出现的位置，然后二次遍历时候看看当前字符是不是前面记录的最后位置</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> last = Math.max(last, map[S.charAt(i)-'a']); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if(last == i){</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> list.add(last - start + 1);start = last + 1;}</t>
+    </r>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>模板 以及如何建立UF， 以及最后是否要多压缩一次（128）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Union Find</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>也要知道 PQ 怎么写</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(lists[i] != null){pq.offer(lists[i]); }  PriorityQueue&lt;ListNode&gt; pq = new PriorityQueue&lt;&gt;((l1,l2)-&gt; l1.val - l2.val); </t>
+  </si>
+  <si>
+    <t>count ++, and count -- timing</t>
+  </si>
+  <si>
+    <t>BFS:</t>
+  </si>
+  <si>
+    <t>7 - Otc</t>
+  </si>
+  <si>
+    <t>UF.count ++; UF.count --;</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HashMap + Union Find</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PriorityQueue&lt;int[]&gt; pq not int[][];( p2[0] *p2[0] ) 放前面 大顶堆</t>
+  </si>
+  <si>
+    <t>每个存入的点是一个Size为二的数组</t>
+  </si>
+  <si>
+    <t>Heap, DivideConquar</t>
+  </si>
+  <si>
+    <t>692. Top K Frequent Words</t>
+  </si>
+  <si>
+    <t>How to write if condition comparator</t>
+  </si>
+  <si>
+    <t>Heap, Comparator</t>
+  </si>
+  <si>
+    <t>方法里面是逗号隔开，前面定义的C 后面“.”时候要定义K。Return cur.isEnd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DFS, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Union Find</t>
+    </r>
+  </si>
+  <si>
+    <t>新节点时候直接用  Trie  trie = new Trie(); 初始化时候要 Trie[] trie = new Trie[26];</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2095,6 +2275,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2116,7 +2303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2166,6 +2353,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2448,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9015E-38ED-4F93-8E11-F93069040171}">
   <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4722,7 +4914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D5F69-D771-4159-83B5-65B5E33BA953}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
@@ -5296,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF1E73-B9B1-43EF-A5C0-C57902A60959}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6124,8 +6316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4916E59A-E410-4F0D-B211-B747613DE85F}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6135,9 +6327,9 @@
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="98.42578125" customWidth="1"/>
-    <col min="8" max="8" width="78.28515625" customWidth="1"/>
+    <col min="8" max="8" width="81.5703125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6197,7 +6389,6 @@
       <c r="A3" s="17">
         <v>44065</v>
       </c>
-      <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
@@ -6218,7 +6409,9 @@
       <c r="A4" s="17">
         <v>44065</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17">
+        <v>44110</v>
+      </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
@@ -6227,7 +6420,12 @@
       <c r="F4" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="H4" t="s">
+        <v>612</v>
+      </c>
       <c r="I4" s="16" t="s">
         <v>442</v>
       </c>
@@ -6265,7 +6463,9 @@
         <v>445</v>
       </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>610</v>
+      </c>
       <c r="I6" s="16" t="s">
         <v>460</v>
       </c>
@@ -6301,16 +6501,24 @@
       <c r="E8" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>607</v>
+      </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>44072</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17">
+        <v>44110</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
@@ -6319,7 +6527,9 @@
       <c r="F9" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>611</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
         <v>460</v>
@@ -6435,8 +6645,12 @@
       <c r="F15" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>620</v>
+      </c>
       <c r="I15" s="16" t="s">
         <v>443</v>
       </c>
@@ -6595,7 +6809,7 @@
       <c r="A26" s="17">
         <v>44100</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="21" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6647,82 +6861,100 @@
         <v>479</v>
       </c>
     </row>
-    <row r="33" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>44109</v>
+      </c>
       <c r="E33" s="16" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>603</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="16" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="35" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="16" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="36" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="16" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="16" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="16" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="16" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="16" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>44111</v>
+      </c>
       <c r="E44" s="16" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="45" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="16" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="46" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="48" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="16" t="s">
         <v>495</v>
       </c>
@@ -6752,8 +6984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCCFC0B-F744-4504-AE68-399CB9A3279D}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6860,15 +7092,21 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="17">
+        <v>44110</v>
+      </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>609</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
@@ -6977,7 +7215,9 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="17">
+        <v>44111</v>
+      </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7230,8 +7470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E3B601-554A-49EC-A86F-6676B11BF0FD}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,17 +7923,20 @@
         <v>598</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="16" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="16" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="5:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>44111</v>
+      </c>
       <c r="E51" s="16" t="s">
         <v>601</v>
       </c>
@@ -7701,4 +7944,323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B87EAA3-D95F-47BB-9FBF-82258A128EB0}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" customWidth="1"/>
+    <col min="6" max="6" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="19">
+        <v>44114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" s="19">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="19">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794B426-54F3-4538-BF14-7DCE80FE8720}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" customWidth="1"/>
+    <col min="8" max="8" width="70.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G2" t="s">
+        <v>625</v>
+      </c>
+      <c r="I2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="F3" t="s">
+        <v>629</v>
+      </c>
+      <c r="H3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" t="s">
+        <v>626</v>
+      </c>
+      <c r="I4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" t="s">
+        <v>630</v>
+      </c>
+      <c r="G5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>44113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>44113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F7" t="s">
+        <v>636</v>
+      </c>
+      <c r="H7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>44113</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" t="s">
+        <v>619</v>
+      </c>
+      <c r="G8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>44113</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" t="s">
+        <v>619</v>
+      </c>
+      <c r="G9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122740C-11C3-4FB5-9A50-C26CFEE96D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E172B9C-4ACB-4717-A9DF-FE282092743C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="4" r:id="rId1"/>
@@ -14,8 +14,7 @@
     <sheet name="problem1~50" sheetId="6" r:id="rId4"/>
     <sheet name="problem 51~100" sheetId="7" r:id="rId5"/>
     <sheet name="problem101~150" sheetId="8" r:id="rId6"/>
-    <sheet name="Topic" sheetId="10" r:id="rId7"/>
-    <sheet name="Topic2" sheetId="11" r:id="rId8"/>
+    <sheet name="Topic" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="648">
   <si>
     <t>Two sum</t>
   </si>
@@ -2123,9 +2122,6 @@
     <t>模板 以及如何建立UF， 以及最后是否要多压缩一次（128）</t>
   </si>
   <si>
-    <t xml:space="preserve"> Union Find</t>
-  </si>
-  <si>
     <t>Trie</t>
   </si>
   <si>
@@ -2135,9 +2131,6 @@
     <t xml:space="preserve"> if(lists[i] != null){pq.offer(lists[i]); }  PriorityQueue&lt;ListNode&gt; pq = new PriorityQueue&lt;&gt;((l1,l2)-&gt; l1.val - l2.val); </t>
   </si>
   <si>
-    <t>count ++, and count -- timing</t>
-  </si>
-  <si>
     <t>BFS:</t>
   </si>
   <si>
@@ -2178,9 +2171,6 @@
   </si>
   <si>
     <t>Heap, Comparator</t>
-  </si>
-  <si>
-    <t>方法里面是逗号隔开，前面定义的C 后面“.”时候要定义K。Return cur.isEnd</t>
   </si>
   <si>
     <r>
@@ -2209,6 +2199,43 @@
   </si>
   <si>
     <t>新节点时候直接用  Trie  trie = new Trie(); 初始化时候要 Trie[] trie = new Trie[26];</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>if (index == word.length()) return true; 不是 index &gt;= word.length() return false, 
+刚好越界说明前面都是正确的 搜到我们想要的了 类似 root == null;</t>
+  </si>
+  <si>
+    <t>DFS + Trie</t>
+  </si>
+  <si>
+    <t>方法里面是逗号隔开，前面定义的C 后面“.”时候要定义K。
+ if(index == word.length()) return cur.isEnd; 递归结束条件</t>
+  </si>
+  <si>
+    <t>1:Trie.val = word; 2 Set&lt;String&gt; result =new HashSet&lt;&gt;(); 3: cur=cur.child[board[i][j]-'a'];</t>
+  </si>
+  <si>
+    <t>先从最简单的想起 比如只有一个字母的单词时候 然后递归 加层, 不要把Trie and TrieNode 弄混</t>
+  </si>
+  <si>
+    <t>Topologic sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indegree[pre[0]]++;  not indegree[pre[0 ++]];  因为NUMSCOURSE就是INT 所以直接用它 
+ArrayList.size() not ArrayList.length();</t>
+  </si>
+  <si>
+    <t>1:入度表，邻接表，初始化邻接表，为入读表和邻接表给初值，把度为零的点放入QUEUE，
+然后依次用去除QUEUE里面每一个点的对它的依赖关系直到那个点入度也为零</t>
+  </si>
+  <si>
+    <t>Arrays.toList(list); List.toArray(new String[Size]);</t>
+  </si>
+  <si>
+    <t>269. Alien Dictionary</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2384,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6421,7 +6450,7 @@
         <v>437</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H4" t="s">
         <v>612</v>
@@ -6646,10 +6675,10 @@
         <v>436</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>443</v>
@@ -7947,124 +7976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B87EAA3-D95F-47BB-9FBF-82258A128EB0}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="84.7109375" customWidth="1"/>
-    <col min="6" max="6" width="71" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="B1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="19">
-        <v>44114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C3" s="19">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C4" s="19">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794B426-54F3-4538-BF14-7DCE80FE8720}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8116,44 +8032,48 @@
         <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" t="s">
         <v>625</v>
-      </c>
-      <c r="I2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>616</v>
       </c>
       <c r="F3" t="s">
-        <v>629</v>
-      </c>
-      <c r="H3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>617</v>
       </c>
       <c r="I3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E4" t="s">
         <v>613</v>
       </c>
       <c r="F4" t="s">
-        <v>626</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8164,13 +8084,13 @@
         <v>317</v>
       </c>
       <c r="F5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>630</v>
-      </c>
-      <c r="G5" t="s">
-        <v>631</v>
-      </c>
-      <c r="H5" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8181,21 +8101,24 @@
         <v>314</v>
       </c>
       <c r="F6" t="s">
-        <v>633</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>44113</v>
       </c>
       <c r="E7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F7" t="s">
         <v>634</v>
       </c>
-      <c r="F7" t="s">
-        <v>636</v>
-      </c>
-      <c r="H7" t="s">
-        <v>635</v>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8209,11 +8132,12 @@
         <v>422</v>
       </c>
       <c r="F8" t="s">
-        <v>619</v>
-      </c>
-      <c r="G8" t="s">
-        <v>637</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -8226,35 +8150,115 @@
         <v>419</v>
       </c>
       <c r="F9" t="s">
-        <v>619</v>
-      </c>
-      <c r="G9" t="s">
+        <v>618</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G11" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" t="s">
+        <v>643</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" t="s">
+        <v>643</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>647</v>
+      </c>
+      <c r="F14" t="s">
+        <v>643</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E172B9C-4ACB-4717-A9DF-FE282092743C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C6E2F0-C8C3-4F7E-BFE3-39E6FCBB899E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="problem 51~100" sheetId="7" r:id="rId5"/>
     <sheet name="problem101~150" sheetId="8" r:id="rId6"/>
     <sheet name="Topic" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="671">
   <si>
     <t>Two sum</t>
   </si>
@@ -2236,6 +2237,77 @@
   </si>
   <si>
     <t>269. Alien Dictionary</t>
+  </si>
+  <si>
+    <t>HashMap +
+ Union Find</t>
+  </si>
+  <si>
+    <t>1249 Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>1428 Leftmost Column with at Least a One</t>
+  </si>
+  <si>
+    <t>680 Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>238 Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>273 Integer to English Words</t>
+  </si>
+  <si>
+    <t>415 Add Strings</t>
+  </si>
+  <si>
+    <t>67 Add Binary</t>
+  </si>
+  <si>
+    <t>301 Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>158 Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>先从最简单的想起 比如只有一个字母的单词时候 然后递归 加层, 
+不要把Trie and TrieNode 弄混</t>
+  </si>
+  <si>
+    <t>297 Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 Kth Largest Element in an Array	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">523 Continuous Subarray Sum	</t>
+  </si>
+  <si>
+    <t>938 Range Sum of BST</t>
+  </si>
+  <si>
+    <t>438 Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>282 Expression Add Operators</t>
+  </si>
+  <si>
+    <t>636 Exclusive Time of Functions</t>
+  </si>
+  <si>
+    <t>65 Valid Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">670 Maximum Swap	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173 Binary Search Tree Iterator	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528 Random Pick with Weight	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 953 Verifying an Alien Dictionary</t>
   </si>
 </sst>
 </file>
@@ -7979,8 +8051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794B426-54F3-4538-BF14-7DCE80FE8720}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8222,6 +8294,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>44116</v>
+      </c>
       <c r="E14" t="s">
         <v>647</v>
       </c>
@@ -8267,4 +8342,423 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8085F8C-9700-45AE-8FE6-F01ACED022B1}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="69.7109375" customWidth="1"/>
+    <col min="8" max="8" width="64.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="I3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>44113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>44113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>44113</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>44113</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" t="s">
+        <v>618</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>639</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" t="s">
+        <v>643</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>44115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" t="s">
+        <v>643</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>44116</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="F14" t="s">
+        <v>643</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C6E2F0-C8C3-4F7E-BFE3-39E6FCBB899E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F5972-0967-4A1D-966E-A0A39290F7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="697">
   <si>
     <t>Two sum</t>
   </si>
@@ -2308,6 +2308,84 @@
   </si>
   <si>
     <t xml:space="preserve"> 953 Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>278 First Bad Version</t>
+  </si>
+  <si>
+    <t>125 Valid Palindrome</t>
+  </si>
+  <si>
+    <t>88 Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>398 Random Pick Index</t>
+  </si>
+  <si>
+    <t>1570 Dot Product of Two Sparse Vectors</t>
+  </si>
+  <si>
+    <t>721 Accounts Merge</t>
+  </si>
+  <si>
+    <t>987 Vertical Order Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 Find First and Last Position of Element in Sorted Array	</t>
+  </si>
+  <si>
+    <t>249 Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>270 Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>314 Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>340 Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>543 Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>227 Basic Calculator II</t>
+  </si>
+  <si>
+    <t>621 Task Scheduler</t>
+  </si>
+  <si>
+    <t>29 Divide Two Integers</t>
+  </si>
+  <si>
+    <t>785 Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>689 Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>42 Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>825 Friends Of Appropriate Ages</t>
+  </si>
+  <si>
+    <t>766 Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 Merge Intervals	</t>
+  </si>
+  <si>
+    <t>1060 Missing Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>317 Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>311 Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">896 Monotonic Array	</t>
   </si>
 </sst>
 </file>
@@ -8348,8 +8426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8085F8C-9700-45AE-8FE6-F01ACED022B1}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8723,40 +8801,168 @@
         <v>669</v>
       </c>
     </row>
-    <row r="39" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ning Solutions/Plan.xlsb.xlsx
+++ b/Ning Solutions/Plan.xlsb.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F5972-0967-4A1D-966E-A0A39290F7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5098A-D55B-42EF-97DF-3B39444B4D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="702">
   <si>
     <t>Two sum</t>
   </si>
@@ -2386,6 +2386,21 @@
   </si>
   <si>
     <t xml:space="preserve">896 Monotonic Array	</t>
+  </si>
+  <si>
+    <t>//wrong answer c1 != c2 &amp;&amp; dic[c1 - 'a'] &gt; dic[c2 -'a']{return false} 要return dic[c1 - 'a'] &gt; dic[c2 -'a']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当第一个字母不等的时候做一次比较就可以了  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(carry == 1) res.append(1); int m = num1.length() - 1;</t>
+  </si>
+  <si>
+    <t>sb.append(sum % 2);   carry = sum / 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     if(c == '(') count ++; if(c == ')') count --; if(count &lt; 0) return false;</t>
   </si>
 </sst>
 </file>
@@ -8426,8 +8441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8085F8C-9700-45AE-8FE6-F01ACED022B1}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8438,7 +8453,7 @@
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="69.7109375" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
     <col min="8" max="8" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8682,8 +8697,23 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>44145</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44162</v>
+      </c>
       <c r="E15" t="s">
         <v>670</v>
+      </c>
+      <c r="F15" t="s">
+        <v>439</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8691,82 +8721,109 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>44145</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44162</v>
+      </c>
       <c r="E21" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>44145</v>
+      </c>
+      <c r="B22" s="19">
+        <v>44162</v>
+      </c>
       <c r="E22" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>44145</v>
+      </c>
+      <c r="B23" s="19">
+        <v>44162</v>
+      </c>
       <c r="E23" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="24" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="25" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="28" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="30" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="31" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="32" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>664</v>
       </c>
